--- a/data/Mass_Correction_GLU.xlsx
+++ b/data/Mass_Correction_GLU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gracehenry/Documents/GitHub/CSIA_lab_work/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91BBB513-F6F3-404D-8474-C7F12D0B1366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B2A2906-D507-B944-BC13-5D0970BDD6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27340" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,6 +47,7 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -7081,8 +7082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7133,7 +7134,7 @@
         <v>21.636340909091899</v>
       </c>
       <c r="E2">
-        <f>$J$3-$J$1*B2^$J$2</f>
+        <f t="shared" ref="E2:E65" si="0">$J$3-$J$1*B2^$J$2</f>
         <v>19.866259747216972</v>
       </c>
       <c r="F2">
@@ -7169,19 +7170,19 @@
         <v>21.822909090910201</v>
       </c>
       <c r="E3">
-        <f>$J$3-$J$1*B3^$J$2</f>
+        <f t="shared" si="0"/>
         <v>19.97744355651459</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">(E3-D3)^2</f>
+        <f t="shared" ref="F3:F66" si="1">(E3-D3)^2</f>
         <v>3.4057430386420791</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G33" si="1">$J$3-E3</f>
+        <f t="shared" ref="G3:G33" si="2">$J$3-E3</f>
         <v>3.8134780088355775</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H33" si="2">D3+G3</f>
+        <f t="shared" ref="H3:H33" si="3">D3+G3</f>
         <v>25.636387099745779</v>
       </c>
       <c r="I3" t="s">
@@ -7205,19 +7206,19 @@
         <v>20.489393750000001</v>
       </c>
       <c r="E4">
-        <f>$J$3-$J$1*B4^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.387336049518709</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0415774227529276E-2</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.403585515831459</v>
       </c>
       <c r="H4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.89297926583146</v>
       </c>
     </row>
@@ -7235,19 +7236,19 @@
         <v>19.720075000000001</v>
       </c>
       <c r="E5">
-        <f>$J$3-$J$1*B5^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.392182588031734</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45172860988983266</v>
       </c>
       <c r="G5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.398738977318434</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.118813977318435</v>
       </c>
       <c r="I5" t="s">
@@ -7272,19 +7273,19 @@
         <v>22.3704772727286</v>
       </c>
       <c r="E6">
-        <f>$J$3-$J$1*B6^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.429206005513368</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7685341329154314</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3617155598367994</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.732192832565399</v>
       </c>
     </row>
@@ -7302,19 +7303,19 @@
         <v>19.584974999999901</v>
       </c>
       <c r="E7">
-        <f>$J$3-$J$1*B7^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.511686595817071</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85879438182200729</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2792349695330962</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.864209969532997</v>
       </c>
     </row>
@@ -7332,19 +7333,19 @@
         <v>20.750618749999902</v>
       </c>
       <c r="E8">
-        <f>$J$3-$J$1*B8^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.64831243841077</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0466581390972531E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1426091269393979</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.893227876939299</v>
       </c>
     </row>
@@ -7362,19 +7363,19 @@
         <v>20.186712499999899</v>
       </c>
       <c r="E9">
-        <f>$J$3-$J$1*B9^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.701670221077322</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2651814544972525</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0892513442728458</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.275963844272745</v>
       </c>
     </row>
@@ -7392,19 +7393,19 @@
         <v>19.949262499999399</v>
       </c>
       <c r="E10">
-        <f>$J$3-$J$1*B10^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.705539061443435</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57195423738961459</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0853825039067324</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.034645003906132</v>
       </c>
     </row>
@@ -7422,19 +7423,19 @@
         <v>21.7284124999995</v>
       </c>
       <c r="E11">
-        <f>$J$3-$J$1*B11^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.727568004378419</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0016897044150159</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0633535609717484</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.791766060971248</v>
       </c>
     </row>
@@ -7452,19 +7453,19 @@
         <v>22.0040562499995</v>
       </c>
       <c r="E12">
-        <f>$J$3-$J$1*B12^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.841183270339876</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3522735668224539</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9497382950102917</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.953794545009792</v>
       </c>
     </row>
@@ -7482,19 +7483,19 @@
         <v>21.482262499999798</v>
       </c>
       <c r="E13">
-        <f>$J$3-$J$1*B13^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.882260292425922</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36000264909352486</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9086612729242454</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.390923772924044</v>
       </c>
     </row>
@@ -7512,19 +7513,19 @@
         <v>22.350699999999001</v>
       </c>
       <c r="E14">
-        <f>$J$3-$J$1*B14^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.894825705762774</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1195699606178349</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.896095859587394</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.246795859586395</v>
       </c>
     </row>
@@ -7542,19 +7543,19 @@
         <v>21.503581249999801</v>
       </c>
       <c r="E15">
-        <f>$J$3-$J$1*B15^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.918764400488598</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34201074747220872</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8721571648615694</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.37573841486137</v>
       </c>
     </row>
@@ -7572,19 +7573,19 @@
         <v>22.4518999999997</v>
       </c>
       <c r="E16">
-        <f>$J$3-$J$1*B16^$J$2</f>
+        <f t="shared" si="0"/>
         <v>20.942247594219928</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2790503862766522</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8486739711302391</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25.300573971129939</v>
       </c>
     </row>
@@ -7602,19 +7603,19 @@
         <v>19.0949249999993</v>
       </c>
       <c r="E17">
-        <f>$J$3-$J$1*B17^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.05035567287435</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8237091164205697</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7405658924758178</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.835490892475118</v>
       </c>
     </row>
@@ -7632,19 +7633,19 @@
         <v>20.339856249999102</v>
       </c>
       <c r="E18">
-        <f>$J$3-$J$1*B18^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.160754215533128</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.67387346981790375</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6301673498170395</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.970023599816141</v>
       </c>
     </row>
@@ -7662,19 +7663,19 @@
         <v>20.362787499998898</v>
       </c>
       <c r="E19">
-        <f>$J$3-$J$1*B19^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.250322323253673</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78771806248988485</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5405992420964942</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.903386742095392</v>
       </c>
     </row>
@@ -7692,19 +7693,19 @@
         <v>18.463363636363599</v>
       </c>
       <c r="E20">
-        <f>$J$3-$J$1*B20^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.252777620715115</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7808303760957971</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5381439446350527</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.001507580998652</v>
       </c>
     </row>
@@ -7722,19 +7723,19 @@
         <v>18.591401988636299</v>
       </c>
       <c r="E21">
-        <f>$J$3-$J$1*B21^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.254003200062964</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0894452110907444</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5369183652872032</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.128320353923502</v>
       </c>
     </row>
@@ -7752,19 +7753,19 @@
         <v>17.669945454545001</v>
       </c>
       <c r="E22">
-        <f>$J$3-$J$1*B22^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.300164026987421</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.178486883705881</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4907575383627467</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.160702992907748</v>
       </c>
     </row>
@@ -7782,19 +7783,19 @@
         <v>19.261440340909001</v>
       </c>
       <c r="E23">
-        <f>$J$3-$J$1*B23^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.33082054892196</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2823344453157564</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.460101016428208</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.721541357337209</v>
       </c>
     </row>
@@ -7812,19 +7813,19 @@
         <v>21.738443749998901</v>
       </c>
       <c r="E24">
-        <f>$J$3-$J$1*B24^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.417754394848945</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10284166250649425</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3731671705012225</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.111610920500123</v>
       </c>
     </row>
@@ -7842,19 +7843,19 @@
         <v>20.200420170453899</v>
       </c>
       <c r="E25">
-        <f>$J$3-$J$1*B25^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.426629711119624</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.503589837619647</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3642918542305438</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.564712024684443</v>
       </c>
     </row>
@@ -7872,19 +7873,19 @@
         <v>22.168374999998701</v>
       </c>
       <c r="E26">
-        <f>$J$3-$J$1*B26^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.507972624366662</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4361312977404404</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2829489409835055</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.451323940982206</v>
       </c>
     </row>
@@ -7902,19 +7903,19 @@
         <v>19.287399999999799</v>
       </c>
       <c r="E27">
-        <f>$J$3-$J$1*B27^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.508451640726957</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9330703907767992</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2824699246232107</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.56986992462301</v>
       </c>
     </row>
@@ -7932,19 +7933,19 @@
         <v>19.211081818180499</v>
       </c>
       <c r="E28">
-        <f>$J$3-$J$1*B28^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.566994602899143</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5503250492007554</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2239269624510243</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.435008780631524</v>
       </c>
     </row>
@@ -7962,19 +7963,19 @@
         <v>19.698304545453102</v>
       </c>
       <c r="E29">
-        <f>$J$3-$J$1*B29^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.576860987663999</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.5289743065720627</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.214060577686169</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.912365123139271</v>
       </c>
     </row>
@@ -7992,19 +7993,19 @@
         <v>20.550894886363199</v>
       </c>
       <c r="E30">
-        <f>$J$3-$J$1*B30^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.601956785661038</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.10473111615558</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1889647796891296</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.739859666052329</v>
       </c>
     </row>
@@ -8022,19 +8023,19 @@
         <v>21.4743062499989</v>
       </c>
       <c r="E31">
-        <f>$J$3-$J$1*B31^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.611036782023586</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8695238387753589E-2</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1798847833265818</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.654191033325482</v>
       </c>
     </row>
@@ -8052,19 +8053,19 @@
         <v>20.5346062499999</v>
       </c>
       <c r="E32">
-        <f>$J$3-$J$1*B32^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.644009528909791</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2307756352560175</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1469120364403764</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.681518286440276</v>
       </c>
     </row>
@@ -8082,19 +8083,19 @@
         <v>24.3812576704535</v>
       </c>
       <c r="E33">
-        <f>$J$3-$J$1*B33^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.6580225088437</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4160097454279539</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1328990565064672</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26.514156726959968</v>
       </c>
     </row>
@@ -8112,19 +8113,19 @@
         <v>23.703481249999399</v>
       </c>
       <c r="E34">
-        <f>$J$3-$J$1*B34^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.69998728222053</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.0139880789263165</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34:G97" si="3">$J$3-E34</f>
+        <f t="shared" ref="G34:G97" si="4">$J$3-E34</f>
         <v>2.0909342831296378</v>
       </c>
       <c r="H34">
-        <f t="shared" ref="H34:H97" si="4">D34+G34</f>
+        <f t="shared" ref="H34:H97" si="5">D34+G34</f>
         <v>25.794415533129037</v>
       </c>
     </row>
@@ -8142,19 +8143,19 @@
         <v>24.128857954544699</v>
       </c>
       <c r="E35">
-        <f>$J$3-$J$1*B35^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.708151249059362</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8598209539816732</v>
       </c>
       <c r="G35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0827703162908051</v>
       </c>
       <c r="H35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.211628270835504</v>
       </c>
     </row>
@@ -8172,19 +8173,19 @@
         <v>20.058527272725701</v>
       </c>
       <c r="E36">
-        <f>$J$3-$J$1*B36^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.738210816336849</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.821336806678103</v>
       </c>
       <c r="G36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0527107490133183</v>
       </c>
       <c r="H36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.11123802173902</v>
       </c>
     </row>
@@ -8202,19 +8203,19 @@
         <v>21.3448124999999</v>
       </c>
       <c r="E37">
-        <f>$J$3-$J$1*B37^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.744548027281823</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.15978849177135679</v>
       </c>
       <c r="G37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0463735380683445</v>
       </c>
       <c r="H37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.391186038068245</v>
       </c>
     </row>
@@ -8232,19 +8233,19 @@
         <v>23.0324582386354</v>
       </c>
       <c r="E38">
-        <f>$J$3-$J$1*B38^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.745661636945968</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6558454941194694</v>
       </c>
       <c r="G38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0452599284041995</v>
       </c>
       <c r="H38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.077718167039599</v>
       </c>
     </row>
@@ -8262,19 +8263,19 @@
         <v>23.092124999999399</v>
       </c>
       <c r="E39">
-        <f>$J$3-$J$1*B39^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.781280503370965</v>
       </c>
       <c r="F39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7183132943410522</v>
       </c>
       <c r="G39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0096410619792024</v>
       </c>
       <c r="H39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.101766061978601</v>
       </c>
     </row>
@@ -8292,19 +8293,19 @@
         <v>20.962654150197199</v>
       </c>
       <c r="E40">
-        <f>$J$3-$J$1*B40^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.789079475792704</v>
       </c>
       <c r="F40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68297881878563604</v>
       </c>
       <c r="G40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0018420895574636</v>
       </c>
       <c r="H40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.964496239754663</v>
       </c>
     </row>
@@ -8322,19 +8323,19 @@
         <v>20.879783185840999</v>
       </c>
       <c r="E41">
-        <f>$J$3-$J$1*B41^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.796808373042776</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8409351939624532</v>
       </c>
       <c r="G41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9941131923073918</v>
       </c>
       <c r="H41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.873896378148391</v>
       </c>
     </row>
@@ -8352,19 +8353,19 @@
         <v>21.002353982300999</v>
       </c>
       <c r="E42">
-        <f>$J$3-$J$1*B42^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.85165506287186</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72131232545883173</v>
       </c>
       <c r="G42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9392665024783078</v>
       </c>
       <c r="H42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.941620484779307</v>
       </c>
     </row>
@@ -8382,19 +8383,19 @@
         <v>22.2510113636339</v>
       </c>
       <c r="E43">
-        <f>$J$3-$J$1*B43^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.879056713198644</v>
       </c>
       <c r="F43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13835026198041381</v>
       </c>
       <c r="G43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.911864852151524</v>
       </c>
       <c r="H43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.162876215785424</v>
       </c>
     </row>
@@ -8412,19 +8413,19 @@
         <v>21.563772727270901</v>
       </c>
       <c r="E44">
-        <f>$J$3-$J$1*B44^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.888200876212039</v>
       </c>
       <c r="F44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10525362382537309</v>
       </c>
       <c r="G44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9027206891381283</v>
       </c>
       <c r="H44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.46649341640903</v>
       </c>
     </row>
@@ -8442,19 +8443,19 @@
         <v>21.381984189722701</v>
       </c>
       <c r="E45">
-        <f>$J$3-$J$1*B45^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.897243899502545</v>
       </c>
       <c r="F45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26549256852240921</v>
       </c>
       <c r="G45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8936776658476226</v>
       </c>
       <c r="H45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.275661855570323</v>
       </c>
     </row>
@@ -8472,19 +8473,19 @@
         <v>23.315768749999499</v>
       </c>
       <c r="E46">
-        <f>$J$3-$J$1*B46^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.919269453405189</v>
       </c>
       <c r="F46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9502102853884036</v>
       </c>
       <c r="G46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8716521119449787</v>
       </c>
       <c r="H46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.187420861944478</v>
       </c>
     </row>
@@ -8502,19 +8503,19 @@
         <v>20.570924778761299</v>
       </c>
       <c r="E47">
-        <f>$J$3-$J$1*B47^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.96272708537369</v>
       </c>
       <c r="F47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9371136606915715</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.828194479976478</v>
       </c>
       <c r="H47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.399119258737777</v>
       </c>
     </row>
@@ -8532,19 +8533,19 @@
         <v>22.683249999997699</v>
       </c>
       <c r="E48">
-        <f>$J$3-$J$1*B48^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.973228072152612</v>
       </c>
       <c r="F48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5041311380208543</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8176934931975559</v>
       </c>
       <c r="H48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.500943493195255</v>
       </c>
     </row>
@@ -8562,19 +8563,19 @@
         <v>22.6928232695136</v>
       </c>
       <c r="E49">
-        <f>$J$3-$J$1*B49^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.988857416532287</v>
       </c>
       <c r="F49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.49556792216370676</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.8020641488178804</v>
       </c>
       <c r="H49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.49488741833148</v>
       </c>
     </row>
@@ -8592,19 +8593,19 @@
         <v>21.399314229248599</v>
       </c>
       <c r="E50">
-        <f>$J$3-$J$1*B50^$J$2</f>
+        <f t="shared" si="0"/>
         <v>21.999831351866138</v>
       </c>
       <c r="F50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36062081455684863</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7910902134840292</v>
       </c>
       <c r="H50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.190404442732628</v>
       </c>
     </row>
@@ -8622,19 +8623,19 @@
         <v>22.5285036818847</v>
       </c>
       <c r="E51">
-        <f>$J$3-$J$1*B51^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.013064520944649</v>
       </c>
       <c r="F51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26567752863058408</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7778570444055184</v>
       </c>
       <c r="H51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.306360726290219</v>
       </c>
     </row>
@@ -8652,19 +8653,19 @@
         <v>20.855701136363699</v>
       </c>
       <c r="E52">
-        <f>$J$3-$J$1*B52^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.018134792215459</v>
       </c>
       <c r="F52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3512520042568892</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7727867731347082</v>
       </c>
       <c r="H52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.628487909498407</v>
       </c>
     </row>
@@ -8682,19 +8683,19 @@
         <v>21.909196022727301</v>
       </c>
       <c r="E53">
-        <f>$J$3-$J$1*B53^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.063051271840621</v>
       </c>
       <c r="F53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3671437679721838E-2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7278702935095467</v>
       </c>
       <c r="H53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.637066316236847</v>
       </c>
     </row>
@@ -8712,19 +8713,19 @@
         <v>22.108184094255801</v>
       </c>
       <c r="E54">
-        <f>$J$3-$J$1*B54^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.074981149139376</v>
       </c>
       <c r="F54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1024355644043504E-3</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7159404162107919</v>
       </c>
       <c r="H54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.824124510466593</v>
       </c>
     </row>
@@ -8742,19 +8743,19 @@
         <v>22.021099431818101</v>
       </c>
       <c r="E55">
-        <f>$J$3-$J$1*B55^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.091075543772039</v>
       </c>
       <c r="F55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8966562441900867E-3</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6998460215781286</v>
       </c>
       <c r="H55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.720945453396229</v>
       </c>
     </row>
@@ -8772,19 +8773,19 @@
         <v>21.3635170454545</v>
       </c>
       <c r="E56">
-        <f>$J$3-$J$1*B56^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.149433393848305</v>
       </c>
       <c r="F56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61766450667265227</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6414881715018623</v>
       </c>
       <c r="H56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.005005216956363</v>
       </c>
     </row>
@@ -8802,19 +8803,19 @@
         <v>21.707147727272801</v>
       </c>
       <c r="E57">
-        <f>$J$3-$J$1*B57^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.159588457574547</v>
       </c>
       <c r="F57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20470261443597679</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.631333107775621</v>
       </c>
       <c r="H57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.338480835048422</v>
       </c>
     </row>
@@ -8832,19 +8833,19 @@
         <v>21.8425553977272</v>
       </c>
       <c r="E58">
-        <f>$J$3-$J$1*B58^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.162868378861091</v>
       </c>
       <c r="F58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10260040588288095</v>
       </c>
       <c r="G58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6280531864890762</v>
       </c>
       <c r="H58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.470608584216276</v>
       </c>
     </row>
@@ -8862,19 +8863,19 @@
         <v>20.451051136363599</v>
       </c>
       <c r="E59">
-        <f>$J$3-$J$1*B59^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.174979076737856</v>
       </c>
       <c r="F59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9719275436030257</v>
       </c>
       <c r="G59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6159424886123119</v>
       </c>
       <c r="H59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>22.066993624975911</v>
       </c>
     </row>
@@ -8892,19 +8893,19 @@
         <v>24.240943181818199</v>
       </c>
       <c r="E60">
-        <f>$J$3-$J$1*B60^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.181168740665395</v>
       </c>
       <c r="F60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2426707484263462</v>
       </c>
       <c r="G60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.6097528246847723</v>
       </c>
       <c r="H60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.850696006502972</v>
       </c>
     </row>
@@ -8922,19 +8923,19 @@
         <v>21.464469034091199</v>
       </c>
       <c r="E61">
-        <f>$J$3-$J$1*B61^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.196092564943871</v>
       </c>
       <c r="F61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53527299089733194</v>
       </c>
       <c r="G61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5948290004062962</v>
       </c>
       <c r="H61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>23.059298034497495</v>
       </c>
     </row>
@@ -8952,19 +8953,19 @@
         <v>24.100768465909301</v>
       </c>
       <c r="E62">
-        <f>$J$3-$J$1*B62^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.197339007309754</v>
       </c>
       <c r="F62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.623043703864564</v>
       </c>
       <c r="G62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5935825580404135</v>
       </c>
       <c r="H62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.694351023949714</v>
       </c>
     </row>
@@ -8982,19 +8983,19 @@
         <v>23.886257386363699</v>
       </c>
       <c r="E63">
-        <f>$J$3-$J$1*B63^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.207638563576211</v>
       </c>
       <c r="F63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8177611522164523</v>
       </c>
       <c r="G63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5832830017739568</v>
       </c>
       <c r="H63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.469540388137656</v>
       </c>
     </row>
@@ -9012,19 +9013,19 @@
         <v>23.947780965909299</v>
       </c>
       <c r="E64">
-        <f>$J$3-$J$1*B64^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.213541695096115</v>
       </c>
       <c r="F64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0075858484306441</v>
       </c>
       <c r="G64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5773798702540525</v>
       </c>
       <c r="H64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.525160836163352</v>
       </c>
     </row>
@@ -9042,19 +9043,19 @@
         <v>19.830787499999499</v>
       </c>
       <c r="E65">
-        <f>$J$3-$J$1*B65^$J$2</f>
+        <f t="shared" si="0"/>
         <v>22.217583082326648</v>
       </c>
       <c r="F65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6967931518163963</v>
       </c>
       <c r="G65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5733384830235195</v>
       </c>
       <c r="H65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>21.404125983023018</v>
       </c>
     </row>
@@ -9072,19 +9073,19 @@
         <v>24.202467329545101</v>
       </c>
       <c r="E66">
-        <f>$J$3-$J$1*B66^$J$2</f>
+        <f t="shared" ref="E66:E129" si="6">$J$3-$J$1*B66^$J$2</f>
         <v>22.217985896496995</v>
       </c>
       <c r="F66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9381665581126661</v>
       </c>
       <c r="G66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.572935668853173</v>
       </c>
       <c r="H66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>25.775402998398274</v>
       </c>
     </row>
@@ -9102,19 +9103,19 @@
         <v>19.408855113635799</v>
       </c>
       <c r="E67">
-        <f>$J$3-$J$1*B67^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.225394916671785</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:F130" si="5">(E67-D67)^2</f>
+        <f t="shared" ref="F67:F130" si="7">(E67-D67)^2</f>
         <v>7.9328964620859947</v>
       </c>
       <c r="G67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5655266486783823</v>
       </c>
       <c r="H67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20.974381762314181</v>
       </c>
     </row>
@@ -9132,19 +9133,19 @@
         <v>21.955353754940099</v>
       </c>
       <c r="E68">
-        <f>$J$3-$J$1*B68^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.227383441647493</v>
       </c>
       <c r="F68">
+        <f t="shared" si="7"/>
+        <v>7.400015045012337E-2</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>1.5635381237026742</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="5"/>
-        <v>7.400015045012337E-2</v>
-      </c>
-      <c r="G68">
-        <f t="shared" si="3"/>
-        <v>1.5635381237026742</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="4"/>
         <v>23.518891878642773</v>
       </c>
     </row>
@@ -9162,19 +9163,19 @@
         <v>22.044487215907999</v>
       </c>
       <c r="E69">
-        <f>$J$3-$J$1*B69^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.228771915900282</v>
       </c>
       <c r="F69">
+        <f t="shared" si="7"/>
+        <v>3.3960850651245642E-2</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>1.5621496494498857</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="5"/>
-        <v>3.3960850651245642E-2</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="3"/>
-        <v>1.5621496494498857</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="4"/>
         <v>23.606636865357885</v>
       </c>
     </row>
@@ -9192,19 +9193,19 @@
         <v>21.556593750000001</v>
       </c>
       <c r="E70">
-        <f>$J$3-$J$1*B70^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.229761927914133</v>
       </c>
       <c r="F70">
+        <f t="shared" si="7"/>
+        <v>0.45315539575623226</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>1.5611596374360346</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="5"/>
-        <v>0.45315539575623226</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="3"/>
-        <v>1.5611596374360346</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="4"/>
         <v>23.117753387436036</v>
       </c>
     </row>
@@ -9222,19 +9223,19 @@
         <v>23.3913931818165</v>
       </c>
       <c r="E71">
-        <f>$J$3-$J$1*B71^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.231342913982829</v>
       </c>
       <c r="F71">
+        <f t="shared" si="7"/>
+        <v>1.3457166239009735</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>1.5595786513673389</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="5"/>
-        <v>1.3457166239009735</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="3"/>
-        <v>1.5595786513673389</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="4"/>
         <v>24.950971833183839</v>
       </c>
     </row>
@@ -9252,19 +9253,19 @@
         <v>23.832642045454101</v>
       </c>
       <c r="E72">
-        <f>$J$3-$J$1*B72^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.241723608034999</v>
       </c>
       <c r="F72">
+        <f t="shared" si="7"/>
+        <v>2.5310214745200375</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>1.5491979573151688</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="5"/>
-        <v>2.5310214745200375</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="3"/>
-        <v>1.5491979573151688</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="4"/>
         <v>25.38184000276927</v>
       </c>
     </row>
@@ -9282,19 +9283,19 @@
         <v>20.952023715414601</v>
       </c>
       <c r="E73">
-        <f>$J$3-$J$1*B73^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.243664238189567</v>
       </c>
       <c r="F73">
+        <f t="shared" si="7"/>
+        <v>1.6683352400743865</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>1.5472573271606009</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="5"/>
-        <v>1.6683352400743865</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="3"/>
-        <v>1.5472573271606009</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="4"/>
         <v>22.499281042575202</v>
       </c>
     </row>
@@ -9312,19 +9313,19 @@
         <v>23.377117897727199</v>
       </c>
       <c r="E74">
-        <f>$J$3-$J$1*B74^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.247143156786112</v>
       </c>
       <c r="F74">
+        <f t="shared" si="7"/>
+        <v>1.2768429151648766</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>1.5437784085640551</v>
+      </c>
+      <c r="H74">
         <f t="shared" si="5"/>
-        <v>1.2768429151648766</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="3"/>
-        <v>1.5437784085640551</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="4"/>
         <v>24.920896306291255</v>
       </c>
     </row>
@@ -9342,19 +9343,19 @@
         <v>20.274721590909401</v>
       </c>
       <c r="E75">
-        <f>$J$3-$J$1*B75^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.247335896496804</v>
       </c>
       <c r="F75">
+        <f t="shared" si="7"/>
+        <v>3.8912071986080705</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>1.543585668853364</v>
+      </c>
+      <c r="H75">
         <f t="shared" si="5"/>
-        <v>3.8912071986080705</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="3"/>
-        <v>1.543585668853364</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="4"/>
         <v>21.818307259762765</v>
       </c>
     </row>
@@ -9372,19 +9373,19 @@
         <v>21.640953693181899</v>
       </c>
       <c r="E76">
-        <f>$J$3-$J$1*B76^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.248683508130654</v>
       </c>
       <c r="F76">
+        <f t="shared" si="7"/>
+        <v>0.36933552797764757</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>1.5422380572195138</v>
+      </c>
+      <c r="H76">
         <f t="shared" si="5"/>
-        <v>0.36933552797764757</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="3"/>
-        <v>1.5422380572195138</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="4"/>
         <v>23.183191750401413</v>
       </c>
     </row>
@@ -9402,19 +9403,19 @@
         <v>20.705265340908699</v>
       </c>
       <c r="E77">
-        <f>$J$3-$J$1*B77^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.258040698432449</v>
       </c>
       <c r="F77">
+        <f t="shared" si="7"/>
+        <v>2.4111113109330087</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>1.5328808669177185</v>
+      </c>
+      <c r="H77">
         <f t="shared" si="5"/>
-        <v>2.4111113109330087</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="3"/>
-        <v>1.5328808669177185</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="4"/>
         <v>22.238146207826418</v>
       </c>
     </row>
@@ -9432,19 +9433,19 @@
         <v>23.191306249999801</v>
       </c>
       <c r="E78">
-        <f>$J$3-$J$1*B78^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.263328632182102</v>
       </c>
       <c r="F78">
+        <f t="shared" si="7"/>
+        <v>0.86114245917061238</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>1.5275929331680658</v>
+      </c>
+      <c r="H78">
         <f t="shared" si="5"/>
-        <v>0.86114245917061238</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="3"/>
-        <v>1.5275929331680658</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="4"/>
         <v>24.718899183167867</v>
       </c>
     </row>
@@ -9462,19 +9463,19 @@
         <v>22.5920603829158</v>
       </c>
       <c r="E79">
-        <f>$J$3-$J$1*B79^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.271924457129845</v>
       </c>
       <c r="F79">
+        <f t="shared" si="7"/>
+        <v>0.10248701097883053</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="4"/>
+        <v>1.5189971082203222</v>
+      </c>
+      <c r="H79">
         <f t="shared" si="5"/>
-        <v>0.10248701097883053</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="3"/>
-        <v>1.5189971082203222</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="4"/>
         <v>24.111057491136123</v>
       </c>
     </row>
@@ -9492,19 +9493,19 @@
         <v>21.265683794466099</v>
       </c>
       <c r="E80">
-        <f>$J$3-$J$1*B80^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.276733396566591</v>
       </c>
       <c r="F80">
+        <f t="shared" si="7"/>
+        <v>1.0222212979075631</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="4"/>
+        <v>1.5141881687835763</v>
+      </c>
+      <c r="H80">
         <f t="shared" si="5"/>
-        <v>1.0222212979075631</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="3"/>
-        <v>1.5141881687835763</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="4"/>
         <v>22.779871963249676</v>
       </c>
     </row>
@@ -9522,19 +9523,19 @@
         <v>20.580002840909099</v>
       </c>
       <c r="E81">
-        <f>$J$3-$J$1*B81^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.278940982399124</v>
       </c>
       <c r="F81">
+        <f t="shared" si="7"/>
+        <v>2.8863908086095806</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>1.5119805829510433</v>
+      </c>
+      <c r="H81">
         <f t="shared" si="5"/>
-        <v>2.8863908086095806</v>
-      </c>
-      <c r="G81">
-        <f t="shared" si="3"/>
-        <v>1.5119805829510433</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="4"/>
         <v>22.091983423860142</v>
       </c>
     </row>
@@ -9552,19 +9553,19 @@
         <v>23.071740795286999</v>
       </c>
       <c r="E82">
-        <f>$J$3-$J$1*B82^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.281324098789383</v>
       </c>
       <c r="F82">
+        <f t="shared" si="7"/>
+        <v>0.62475855410220371</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="4"/>
+        <v>1.5095974665607841</v>
+      </c>
+      <c r="H82">
         <f t="shared" si="5"/>
-        <v>0.62475855410220371</v>
-      </c>
-      <c r="G82">
-        <f t="shared" si="3"/>
-        <v>1.5095974665607841</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="4"/>
         <v>24.581338261847783</v>
       </c>
     </row>
@@ -9582,19 +9583,19 @@
         <v>21.508743181817898</v>
       </c>
       <c r="E83">
-        <f>$J$3-$J$1*B83^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.284245195369973</v>
       </c>
       <c r="F83">
+        <f t="shared" si="7"/>
+        <v>0.60140337302332192</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>1.5066763699801946</v>
+      </c>
+      <c r="H83">
         <f t="shared" si="5"/>
-        <v>0.60140337302332192</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="3"/>
-        <v>1.5066763699801946</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="4"/>
         <v>23.015419551798093</v>
       </c>
     </row>
@@ -9612,19 +9613,19 @@
         <v>23.58803125</v>
       </c>
       <c r="E84">
-        <f>$J$3-$J$1*B84^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.284791437485158</v>
       </c>
       <c r="F84">
+        <f t="shared" si="7"/>
+        <v>1.698434008923722</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="4"/>
+        <v>1.5061301278650099</v>
+      </c>
+      <c r="H84">
         <f t="shared" si="5"/>
-        <v>1.698434008923722</v>
-      </c>
-      <c r="G84">
-        <f t="shared" si="3"/>
-        <v>1.5061301278650099</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="4"/>
         <v>25.09416137786501</v>
       </c>
     </row>
@@ -9642,19 +9643,19 @@
         <v>21.684844318181401</v>
       </c>
       <c r="E85">
-        <f>$J$3-$J$1*B85^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.290409075816395</v>
       </c>
       <c r="F85">
+        <f t="shared" si="7"/>
+        <v>0.36670867568952908</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="4"/>
+        <v>1.5005124895337723</v>
+      </c>
+      <c r="H85">
         <f t="shared" si="5"/>
-        <v>0.36670867568952908</v>
-      </c>
-      <c r="G85">
-        <f t="shared" si="3"/>
-        <v>1.5005124895337723</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="4"/>
         <v>23.185356807715173</v>
       </c>
     </row>
@@ -9672,19 +9673,19 @@
         <v>21.736126136362898</v>
       </c>
       <c r="E86">
-        <f>$J$3-$J$1*B86^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.293469073625122</v>
       </c>
       <c r="F86">
+        <f t="shared" si="7"/>
+        <v>0.31063114971608291</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="4"/>
+        <v>1.4974524917250456</v>
+      </c>
+      <c r="H86">
         <f t="shared" si="5"/>
-        <v>0.31063114971608291</v>
-      </c>
-      <c r="G86">
-        <f t="shared" si="3"/>
-        <v>1.4974524917250456</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="4"/>
         <v>23.233578628087944</v>
       </c>
     </row>
@@ -9702,19 +9703,19 @@
         <v>22.650176704545402</v>
       </c>
       <c r="E87">
-        <f>$J$3-$J$1*B87^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.298833805311936</v>
       </c>
       <c r="F87">
+        <f t="shared" si="7"/>
+        <v>0.12344183284177694</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>1.4920877600382312</v>
+      </c>
+      <c r="H87">
         <f t="shared" si="5"/>
-        <v>0.12344183284177694</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="3"/>
-        <v>1.4920877600382312</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="4"/>
         <v>24.142264464583633</v>
       </c>
     </row>
@@ -9732,19 +9733,19 @@
         <v>19.772654545453999</v>
       </c>
       <c r="E88">
-        <f>$J$3-$J$1*B88^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.300789688958552</v>
       </c>
       <c r="F88">
+        <f t="shared" si="7"/>
+        <v>6.3914673038227861</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="4"/>
+        <v>1.4901318763916152</v>
+      </c>
+      <c r="H88">
         <f t="shared" si="5"/>
-        <v>6.3914673038227861</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="3"/>
-        <v>1.4901318763916152</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="4"/>
         <v>21.262786421845615</v>
       </c>
     </row>
@@ -9762,19 +9763,19 @@
         <v>23.709816761363498</v>
       </c>
       <c r="E89">
-        <f>$J$3-$J$1*B89^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.301676756245968</v>
       </c>
       <c r="F89">
+        <f t="shared" si="7"/>
+        <v>1.9828582740123997</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="4"/>
+        <v>1.4892448091041999</v>
+      </c>
+      <c r="H89">
         <f t="shared" si="5"/>
-        <v>1.9828582740123997</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="3"/>
-        <v>1.4892448091041999</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="4"/>
         <v>25.199061570467698</v>
       </c>
     </row>
@@ -9792,19 +9793,19 @@
         <v>21.193927272727802</v>
       </c>
       <c r="E90">
-        <f>$J$3-$J$1*B90^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.301676756245968</v>
       </c>
       <c r="F90">
+        <f t="shared" si="7"/>
+        <v>1.2271089182347636</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="4"/>
+        <v>1.4892448091041999</v>
+      </c>
+      <c r="H90">
         <f t="shared" si="5"/>
-        <v>1.2271089182347636</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="3"/>
-        <v>1.4892448091041999</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="4"/>
         <v>22.683172081832002</v>
       </c>
     </row>
@@ -9822,19 +9823,19 @@
         <v>24.682304545454599</v>
       </c>
       <c r="E91">
-        <f>$J$3-$J$1*B91^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.303093510858652</v>
       </c>
       <c r="F91">
+        <f t="shared" si="7"/>
+        <v>5.660645147143117</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="4"/>
+        <v>1.4878280544915157</v>
+      </c>
+      <c r="H91">
         <f t="shared" si="5"/>
-        <v>5.660645147143117</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="3"/>
-        <v>1.4878280544915157</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="4"/>
         <v>26.170132599946115</v>
       </c>
     </row>
@@ -9852,19 +9853,19 @@
         <v>23.5632991477259</v>
       </c>
       <c r="E92">
-        <f>$J$3-$J$1*B92^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.307851993186038</v>
       </c>
       <c r="F92">
+        <f t="shared" si="7"/>
+        <v>1.5761475578422361</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>1.4830695721641298</v>
+      </c>
+      <c r="H92">
         <f t="shared" si="5"/>
-        <v>1.5761475578422361</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="3"/>
-        <v>1.4830695721641298</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="4"/>
         <v>25.04636871989003</v>
       </c>
     </row>
@@ -9882,19 +9883,19 @@
         <v>22.090545454545701</v>
       </c>
       <c r="E93">
-        <f>$J$3-$J$1*B93^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.313967965342563</v>
       </c>
       <c r="F93">
+        <f t="shared" si="7"/>
+        <v>4.9917618330773884E-2</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="4"/>
+        <v>1.4769536000076045</v>
+      </c>
+      <c r="H93">
         <f t="shared" si="5"/>
-        <v>4.9917618330773884E-2</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="3"/>
-        <v>1.4769536000076045</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="4"/>
         <v>23.567499054553306</v>
       </c>
     </row>
@@ -9912,19 +9913,19 @@
         <v>24.030419034090901</v>
       </c>
       <c r="E94">
-        <f>$J$3-$J$1*B94^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.315184126489768</v>
       </c>
       <c r="F94">
+        <f t="shared" si="7"/>
+        <v>2.942030788253466</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="4"/>
+        <v>1.4757374388603992</v>
+      </c>
+      <c r="H94">
         <f t="shared" si="5"/>
-        <v>2.942030788253466</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="3"/>
-        <v>1.4757374388603992</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="4"/>
         <v>25.5061564729513</v>
       </c>
     </row>
@@ -9942,19 +9943,19 @@
         <v>22.644624999999799</v>
       </c>
       <c r="E95">
-        <f>$J$3-$J$1*B95^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.316744342519129</v>
       </c>
       <c r="F95">
+        <f t="shared" si="7"/>
+        <v>0.10750572554995605</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="4"/>
+        <v>1.4741772228310381</v>
+      </c>
+      <c r="H95">
         <f t="shared" si="5"/>
-        <v>0.10750572554995605</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="3"/>
-        <v>1.4741772228310381</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="4"/>
         <v>24.118802222830837</v>
       </c>
     </row>
@@ -9972,19 +9973,19 @@
         <v>24.912244318181902</v>
       </c>
       <c r="E96">
-        <f>$J$3-$J$1*B96^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.318991224058024</v>
       </c>
       <c r="F96">
+        <f t="shared" si="7"/>
+        <v>6.7249616101830636</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="4"/>
+        <v>1.4719303412921434</v>
+      </c>
+      <c r="H96">
         <f t="shared" si="5"/>
-        <v>6.7249616101830636</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="3"/>
-        <v>1.4719303412921434</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="4"/>
         <v>26.384174659474045</v>
       </c>
     </row>
@@ -10002,19 +10003,19 @@
         <v>21.726698863636301</v>
       </c>
       <c r="E97">
-        <f>$J$3-$J$1*B97^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.319163731089869</v>
       </c>
       <c r="F97">
+        <f t="shared" si="7"/>
+        <v>0.35101461916677412</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="4"/>
+        <v>1.4717578342602984</v>
+      </c>
+      <c r="H97">
         <f t="shared" si="5"/>
-        <v>0.35101461916677412</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="3"/>
-        <v>1.4717578342602984</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="4"/>
         <v>23.198456697896599</v>
       </c>
     </row>
@@ -10032,19 +10033,19 @@
         <v>20.956974147727401</v>
       </c>
       <c r="E98">
-        <f>$J$3-$J$1*B98^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.321573899139473</v>
       </c>
       <c r="F98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8621324815538893</v>
       </c>
       <c r="G98">
-        <f t="shared" ref="G98:G161" si="6">$J$3-E98</f>
+        <f t="shared" ref="G98:G161" si="8">$J$3-E98</f>
         <v>1.4693476662106946</v>
       </c>
       <c r="H98">
-        <f t="shared" ref="H98:H161" si="7">D98+G98</f>
+        <f t="shared" ref="H98:H161" si="9">D98+G98</f>
         <v>22.426321813938095</v>
       </c>
     </row>
@@ -10062,19 +10063,19 @@
         <v>22.345319034090299</v>
       </c>
       <c r="E99">
-        <f>$J$3-$J$1*B99^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.32534280914059</v>
       </c>
       <c r="F99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9904956324135276E-4</v>
       </c>
       <c r="G99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4655787562095774</v>
       </c>
       <c r="H99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.810897790299876</v>
       </c>
     </row>
@@ -10092,19 +10093,19 @@
         <v>22.782720170454599</v>
       </c>
       <c r="E100">
-        <f>$J$3-$J$1*B100^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.331969086186351</v>
       </c>
       <c r="F100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.20317653996900106</v>
       </c>
       <c r="G100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4589524791638162</v>
       </c>
       <c r="H100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.241672649618415</v>
       </c>
     </row>
@@ -10122,19 +10123,19 @@
         <v>21.984206250000099</v>
       </c>
       <c r="E101">
-        <f>$J$3-$J$1*B101^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.332644766318765</v>
       </c>
       <c r="F101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.12140939965435317</v>
       </c>
       <c r="G101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4582767990314025</v>
       </c>
       <c r="H101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.442483049031502</v>
       </c>
     </row>
@@ -10152,19 +10153,19 @@
         <v>20.773954545454501</v>
       </c>
       <c r="E102">
-        <f>$J$3-$J$1*B102^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.33281357258473</v>
       </c>
       <c r="F102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4300414664654033</v>
       </c>
       <c r="G102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4581079927654379</v>
       </c>
       <c r="H102">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22.232062538219939</v>
       </c>
     </row>
@@ -10182,19 +10183,19 @@
         <v>22.190330965907499</v>
       </c>
       <c r="E103">
-        <f>$J$3-$J$1*B103^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.345511200111162</v>
       </c>
       <c r="F103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4080905087503494E-2</v>
       </c>
       <c r="G103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.445410365239006</v>
       </c>
       <c r="H103">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.635741331146505</v>
       </c>
     </row>
@@ -10212,19 +10213,19 @@
         <v>23.3073499999999</v>
       </c>
       <c r="E104">
-        <f>$J$3-$J$1*B104^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.350452945950725</v>
       </c>
       <c r="F104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.91565197204799065</v>
       </c>
       <c r="G104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4404686193994429</v>
       </c>
       <c r="H104">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.747818619399343</v>
       </c>
     </row>
@@ -10242,19 +10243,19 @@
         <v>22.739421207658101</v>
       </c>
       <c r="E105">
-        <f>$J$3-$J$1*B105^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.354867036964613</v>
       </c>
       <c r="F105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.14788191019775584</v>
       </c>
       <c r="G105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4360545283855544</v>
       </c>
       <c r="H105">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.175475736043655</v>
       </c>
     </row>
@@ -10272,19 +10273,19 @@
         <v>22.613793749999701</v>
       </c>
       <c r="E106">
-        <f>$J$3-$J$1*B106^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.383975772363147</v>
       </c>
       <c r="F106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.2816302844955476E-2</v>
       </c>
       <c r="G106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4069457929870204</v>
       </c>
       <c r="H106">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.020739542986721</v>
       </c>
     </row>
@@ -10302,19 +10303,19 @@
         <v>21.740684943180401</v>
       </c>
       <c r="E107">
-        <f>$J$3-$J$1*B107^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.388771619767262</v>
       </c>
       <c r="F107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.42001634036940189</v>
       </c>
       <c r="G107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.4021499455829058</v>
       </c>
       <c r="H107">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.142834888763307</v>
       </c>
     </row>
@@ -10332,19 +10333,19 @@
         <v>22.690090909091801</v>
       </c>
       <c r="E108">
-        <f>$J$3-$J$1*B108^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.393682451742595</v>
       </c>
       <c r="F108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.7857973588135588E-2</v>
       </c>
       <c r="G108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3972391136075721</v>
       </c>
       <c r="H108">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.087330022699373</v>
       </c>
     </row>
@@ -10362,19 +10363,19 @@
         <v>23.032943749999799</v>
       </c>
       <c r="E109">
-        <f>$J$3-$J$1*B109^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.394140791671973</v>
       </c>
       <c r="F109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.40806921956838232</v>
       </c>
       <c r="G109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.396780773678195</v>
       </c>
       <c r="H109">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.429724523677994</v>
       </c>
     </row>
@@ -10392,19 +10393,19 @@
         <v>20.130254829545098</v>
       </c>
       <c r="E110">
-        <f>$J$3-$J$1*B110^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.399613709850279</v>
       </c>
       <c r="F110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1499897276199817</v>
       </c>
       <c r="G110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.391307855499889</v>
       </c>
       <c r="H110">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21.521562685044987</v>
       </c>
     </row>
@@ -10422,19 +10423,19 @@
         <v>22.417654545454599</v>
       </c>
       <c r="E111">
-        <f>$J$3-$J$1*B111^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.401276054996814</v>
       </c>
       <c r="F111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6825494967578522E-4</v>
       </c>
       <c r="G111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.389645510353354</v>
       </c>
       <c r="H111">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.807300055807953</v>
       </c>
     </row>
@@ -10452,19 +10453,19 @@
         <v>21.935935227273301</v>
       </c>
       <c r="E112">
-        <f>$J$3-$J$1*B112^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.407132774346849</v>
       </c>
       <c r="F112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.22202712836812796</v>
       </c>
       <c r="G112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3837887910033189</v>
       </c>
       <c r="H112">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.31972401827662</v>
       </c>
     </row>
@@ -10482,19 +10483,19 @@
         <v>24.356593749999899</v>
       </c>
       <c r="E113">
-        <f>$J$3-$J$1*B113^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.409221206995408</v>
       </c>
       <c r="F113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.7922598212477774</v>
       </c>
       <c r="G113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3817003583547596</v>
       </c>
       <c r="H113">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.738294108354658</v>
       </c>
     </row>
@@ -10512,19 +10513,19 @@
         <v>21.5669431818189</v>
       </c>
       <c r="E114">
-        <f>$J$3-$J$1*B114^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.411747323197833</v>
       </c>
       <c r="F114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.71369403729099679</v>
       </c>
       <c r="G114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3791742421523345</v>
       </c>
       <c r="H114">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22.946117423971234</v>
       </c>
     </row>
@@ -10542,19 +10543,19 @@
         <v>22.278278409089001</v>
       </c>
       <c r="E115">
-        <f>$J$3-$J$1*B115^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.416179063730677</v>
       </c>
       <c r="F115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9016590550602827E-2</v>
       </c>
       <c r="G115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3747425016194903</v>
       </c>
       <c r="H115">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.653020910708491</v>
       </c>
     </row>
@@ -10572,19 +10573,19 @@
         <v>22.1856590909101</v>
       </c>
       <c r="E116">
-        <f>$J$3-$J$1*B116^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.419846955758743</v>
       </c>
       <c r="F116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.4843956042366207E-2</v>
       </c>
       <c r="G116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3710746095914246</v>
       </c>
       <c r="H116">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.556733700501525</v>
       </c>
     </row>
@@ -10602,19 +10603,19 @@
         <v>22.379343873517499</v>
       </c>
       <c r="E117">
-        <f>$J$3-$J$1*B117^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.438275687256255</v>
       </c>
       <c r="F117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.4729586705394043E-3</v>
       </c>
       <c r="G117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.352645878093913</v>
       </c>
       <c r="H117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.731989751611412</v>
       </c>
     </row>
@@ -10632,19 +10633,19 @@
         <v>24.189644268774099</v>
       </c>
       <c r="E118">
-        <f>$J$3-$J$1*B118^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.444898866121477</v>
       </c>
       <c r="F118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0441365200774615</v>
       </c>
       <c r="G118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3460226992286906</v>
       </c>
       <c r="H118">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.53566696800279</v>
       </c>
     </row>
@@ -10662,19 +10663,19 @@
         <v>22.4130039525689</v>
       </c>
       <c r="E119">
-        <f>$J$3-$J$1*B119^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.451585578250832</v>
       </c>
       <c r="F119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4885418402606993E-3</v>
       </c>
       <c r="G119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3393359870993358</v>
       </c>
       <c r="H119">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.752339939668236</v>
       </c>
     </row>
@@ -10692,19 +10693,19 @@
         <v>21.895673913042899</v>
       </c>
       <c r="E120">
-        <f>$J$3-$J$1*B120^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.455450604886995</v>
       </c>
       <c r="F120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.31334994473192007</v>
       </c>
       <c r="G120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3354709604631729</v>
       </c>
       <c r="H120">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.231144873506071</v>
       </c>
     </row>
@@ -10722,19 +10723,19 @@
         <v>22.3882258522714</v>
       </c>
       <c r="E121">
-        <f>$J$3-$J$1*B121^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.455588161692155</v>
       </c>
       <c r="F121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.5376807304975293E-3</v>
       </c>
       <c r="G121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3353334036580122</v>
       </c>
       <c r="H121">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.723559255929413</v>
       </c>
     </row>
@@ -10752,19 +10753,19 @@
         <v>23.1529829545462</v>
       </c>
       <c r="E122">
-        <f>$J$3-$J$1*B122^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.462695972713274</v>
       </c>
       <c r="F122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.47649611728801095</v>
       </c>
       <c r="G122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.328225592636894</v>
       </c>
       <c r="H122">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.481208547183094</v>
       </c>
     </row>
@@ -10782,19 +10783,19 @@
         <v>22.543894886364001</v>
       </c>
       <c r="E123">
-        <f>$J$3-$J$1*B123^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.464459198155197</v>
       </c>
       <c r="F123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.3100285612063016E-3</v>
       </c>
       <c r="G123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3264623671949707</v>
       </c>
       <c r="H123">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.870357253558971</v>
       </c>
     </row>
@@ -10812,19 +10813,19 @@
         <v>21.2892437499988</v>
       </c>
       <c r="E124">
-        <f>$J$3-$J$1*B124^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.469179389392473</v>
       </c>
       <c r="F124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.3922481131113551</v>
       </c>
       <c r="G124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3217421759576951</v>
       </c>
       <c r="H124">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22.610985925956495</v>
       </c>
     </row>
@@ -10842,19 +10843,19 @@
         <v>23.172226704545601</v>
       </c>
       <c r="E125">
-        <f>$J$3-$J$1*B125^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.473594211878829</v>
       </c>
       <c r="F125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.48808735980978624</v>
       </c>
       <c r="G125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3173273534713381</v>
       </c>
       <c r="H125">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.489554058016939</v>
       </c>
     </row>
@@ -10872,19 +10873,19 @@
         <v>23.2564792613639</v>
       </c>
       <c r="E126">
-        <f>$J$3-$J$1*B126^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.474127011908759</v>
       </c>
       <c r="F126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61207504222751841</v>
       </c>
       <c r="G126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3167945534414081</v>
       </c>
       <c r="H126">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.573273814805308</v>
       </c>
     </row>
@@ -10902,19 +10903,19 @@
         <v>23.9440377840892</v>
       </c>
       <c r="E127">
-        <f>$J$3-$J$1*B127^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.488714866027657</v>
       </c>
       <c r="F127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1179647958351673</v>
       </c>
       <c r="G127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.302206699322511</v>
       </c>
       <c r="H127">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.246244483411711</v>
       </c>
     </row>
@@ -10932,19 +10933,19 @@
         <v>24.660974308299501</v>
       </c>
       <c r="E128">
-        <f>$J$3-$J$1*B128^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.491432581137552</v>
       </c>
       <c r="F128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.7069113058968526</v>
       </c>
       <c r="G128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2994889842126156</v>
       </c>
       <c r="H128">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.960463292512117</v>
       </c>
     </row>
@@ -10962,19 +10963,19 @@
         <v>23.372990909091801</v>
       </c>
       <c r="E129">
-        <f>$J$3-$J$1*B129^$J$2</f>
+        <f t="shared" si="6"/>
         <v>22.503184925682611</v>
       </c>
       <c r="F129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.75656244877442813</v>
       </c>
       <c r="G129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2877366396675569</v>
       </c>
       <c r="H129">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.660727548759358</v>
       </c>
     </row>
@@ -10992,19 +10993,19 @@
         <v>22.6086687499999</v>
       </c>
       <c r="E130">
-        <f>$J$3-$J$1*B130^$J$2</f>
+        <f t="shared" ref="E130:E193" si="10">$J$3-$J$1*B130^$J$2</f>
         <v>22.504825688322928</v>
       </c>
       <c r="F130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0783381458447478E-2</v>
       </c>
       <c r="G130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2860958770272397</v>
       </c>
       <c r="H130">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.89476462702714</v>
       </c>
     </row>
@@ -11022,19 +11023,19 @@
         <v>22.005488636361601</v>
       </c>
       <c r="E131">
-        <f>$J$3-$J$1*B131^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.50696397586508</v>
       </c>
       <c r="F131">
-        <f t="shared" ref="F131:F194" si="8">(E131-D131)^2</f>
+        <f t="shared" ref="F131:F194" si="11">(E131-D131)^2</f>
         <v>0.25147751613012931</v>
       </c>
       <c r="G131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2839575894850874</v>
       </c>
       <c r="H131">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.289446225846689</v>
       </c>
     </row>
@@ -11052,19 +11053,19 @@
         <v>22.9197318181821</v>
       </c>
       <c r="E132">
-        <f>$J$3-$J$1*B132^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.507967369211912</v>
       </c>
       <c r="F132">
+        <f t="shared" si="11"/>
+        <v>0.16954996143572323</v>
+      </c>
+      <c r="G132">
         <f t="shared" si="8"/>
-        <v>0.16954996143572323</v>
-      </c>
-      <c r="G132">
-        <f t="shared" si="6"/>
         <v>1.282954196138256</v>
       </c>
       <c r="H132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.202686014320356</v>
       </c>
     </row>
@@ -11082,19 +11083,19 @@
         <v>23.5093636363647</v>
       </c>
       <c r="E133">
-        <f>$J$3-$J$1*B133^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.520725047688682</v>
       </c>
       <c r="F133">
+        <f t="shared" si="11"/>
+        <v>0.97740625901930878</v>
+      </c>
+      <c r="G133">
         <f t="shared" si="8"/>
-        <v>0.97740625901930878</v>
-      </c>
-      <c r="G133">
-        <f t="shared" si="6"/>
         <v>1.2701965176614856</v>
       </c>
       <c r="H133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.779560154026186</v>
       </c>
     </row>
@@ -11112,19 +11113,19 @@
         <v>23.105596590907599</v>
       </c>
       <c r="E134">
-        <f>$J$3-$J$1*B134^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.524993322103455</v>
       </c>
       <c r="F134">
+        <f t="shared" si="11"/>
+        <v>0.33710015574605634</v>
+      </c>
+      <c r="G134">
         <f t="shared" si="8"/>
-        <v>0.33710015574605634</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="6"/>
         <v>1.2659282432467123</v>
       </c>
       <c r="H134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.371524834154311</v>
       </c>
     </row>
@@ -11142,19 +11143,19 @@
         <v>24.761431250000001</v>
       </c>
       <c r="E135">
-        <f>$J$3-$J$1*B135^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.527900908203563</v>
       </c>
       <c r="F135">
+        <f t="shared" si="11"/>
+        <v>4.9886577877253142</v>
+      </c>
+      <c r="G135">
         <f t="shared" si="8"/>
-        <v>4.9886577877253142</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="6"/>
         <v>1.2630206571466047</v>
       </c>
       <c r="H135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>26.024451907146606</v>
       </c>
     </row>
@@ -11172,19 +11173,19 @@
         <v>23.2759988636369</v>
       </c>
       <c r="E136">
-        <f>$J$3-$J$1*B136^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.528142505855257</v>
       </c>
       <c r="F136">
+        <f t="shared" si="11"/>
+        <v>0.55928913187442486</v>
+      </c>
+      <c r="G136">
         <f t="shared" si="8"/>
-        <v>0.55928913187442486</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="6"/>
         <v>1.2627790594949104</v>
       </c>
       <c r="H136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.538777923131811</v>
       </c>
     </row>
@@ -11202,19 +11203,19 @@
         <v>22.9533999999998</v>
       </c>
       <c r="E137">
-        <f>$J$3-$J$1*B137^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.530672803798392</v>
       </c>
       <c r="F137">
+        <f t="shared" si="11"/>
+        <v>0.17869828240830302</v>
+      </c>
+      <c r="G137">
         <f t="shared" si="8"/>
-        <v>0.17869828240830302</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="6"/>
         <v>1.2602487615517752</v>
       </c>
       <c r="H137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.213648761551575</v>
       </c>
     </row>
@@ -11232,19 +11233,19 @@
         <v>23.429931818182599</v>
       </c>
       <c r="E138">
-        <f>$J$3-$J$1*B138^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.533669726645034</v>
       </c>
       <c r="F138">
+        <f t="shared" si="11"/>
+        <v>0.80328573672729087</v>
+      </c>
+      <c r="G138">
         <f t="shared" si="8"/>
-        <v>0.80328573672729087</v>
-      </c>
-      <c r="G138">
-        <f t="shared" si="6"/>
         <v>1.2572518387051339</v>
       </c>
       <c r="H138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.687183656887733</v>
       </c>
     </row>
@@ -11262,19 +11263,19 @@
         <v>22.819727272724499</v>
       </c>
       <c r="E139">
-        <f>$J$3-$J$1*B139^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.535817265259013</v>
       </c>
       <c r="F139">
+        <f t="shared" si="11"/>
+        <v>8.0604892339052631E-2</v>
+      </c>
+      <c r="G139">
         <f t="shared" si="8"/>
-        <v>8.0604892339052631E-2</v>
-      </c>
-      <c r="G139">
-        <f t="shared" si="6"/>
         <v>1.2551043000911548</v>
       </c>
       <c r="H139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.074831572815654</v>
       </c>
     </row>
@@ -11292,19 +11293,19 @@
         <v>24.1742249999999</v>
       </c>
       <c r="E140">
-        <f>$J$3-$J$1*B140^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.547128234593963</v>
       </c>
       <c r="F140">
+        <f t="shared" si="11"/>
+        <v>2.6474438839944647</v>
+      </c>
+      <c r="G140">
         <f t="shared" si="8"/>
-        <v>2.6474438839944647</v>
-      </c>
-      <c r="G140">
-        <f t="shared" si="6"/>
         <v>1.2437933307562048</v>
       </c>
       <c r="H140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.418018330756105</v>
       </c>
     </row>
@@ -11322,19 +11323,19 @@
         <v>22.960043749999802</v>
       </c>
       <c r="E141">
-        <f>$J$3-$J$1*B141^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.551424664886884</v>
       </c>
       <c r="F141">
+        <f t="shared" si="11"/>
+        <v>0.16696955671851768</v>
+      </c>
+      <c r="G141">
         <f t="shared" si="8"/>
-        <v>0.16696955671851768</v>
-      </c>
-      <c r="G141">
-        <f t="shared" si="6"/>
         <v>1.2394969004632834</v>
       </c>
       <c r="H141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.199540650463085</v>
       </c>
     </row>
@@ -11352,19 +11353,19 @@
         <v>24.325304347825501</v>
       </c>
       <c r="E142">
-        <f>$J$3-$J$1*B142^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.552926037186051</v>
       </c>
       <c r="F142">
+        <f t="shared" si="11"/>
+        <v>3.1413248760251506</v>
+      </c>
+      <c r="G142">
         <f t="shared" si="8"/>
-        <v>3.1413248760251506</v>
-      </c>
-      <c r="G142">
-        <f t="shared" si="6"/>
         <v>1.2379955281641166</v>
       </c>
       <c r="H142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.563299875989618</v>
       </c>
     </row>
@@ -11382,19 +11383,19 @@
         <v>20.345828977271001</v>
       </c>
       <c r="E143">
-        <f>$J$3-$J$1*B143^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.557519222289191</v>
       </c>
       <c r="F143">
+        <f t="shared" si="11"/>
+        <v>4.8915737399086199</v>
+      </c>
+      <c r="G143">
         <f t="shared" si="8"/>
-        <v>4.8915737399086199</v>
-      </c>
-      <c r="G143">
-        <f t="shared" si="6"/>
         <v>1.2334023430609768</v>
       </c>
       <c r="H143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21.579231320331978</v>
       </c>
     </row>
@@ -11412,19 +11413,19 @@
         <v>20.922734943179499</v>
       </c>
       <c r="E144">
-        <f>$J$3-$J$1*B144^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.564673667104199</v>
       </c>
       <c r="F144">
+        <f t="shared" si="11"/>
+        <v>2.6959627731234703</v>
+      </c>
+      <c r="G144">
         <f t="shared" si="8"/>
-        <v>2.6959627731234703</v>
-      </c>
-      <c r="G144">
-        <f t="shared" si="6"/>
         <v>1.226247898245969</v>
       </c>
       <c r="H144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22.148982841425468</v>
       </c>
     </row>
@@ -11442,19 +11443,19 @@
         <v>22.897965909088398</v>
       </c>
       <c r="E145">
-        <f>$J$3-$J$1*B145^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.566025490047423</v>
       </c>
       <c r="F145">
+        <f t="shared" si="11"/>
+        <v>0.11018444179309847</v>
+      </c>
+      <c r="G145">
         <f t="shared" si="8"/>
-        <v>0.11018444179309847</v>
-      </c>
-      <c r="G145">
-        <f t="shared" si="6"/>
         <v>1.2248960753027447</v>
       </c>
       <c r="H145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.122861984391143</v>
       </c>
     </row>
@@ -11472,19 +11473,19 @@
         <v>23.863500000001</v>
       </c>
       <c r="E146">
-        <f>$J$3-$J$1*B146^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.571954805320246</v>
       </c>
       <c r="F146">
+        <f t="shared" si="11"/>
+        <v>1.6680889899029476</v>
+      </c>
+      <c r="G146">
         <f t="shared" si="8"/>
-        <v>1.6680889899029476</v>
-      </c>
-      <c r="G146">
-        <f t="shared" si="6"/>
         <v>1.2189667600299217</v>
       </c>
       <c r="H146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.082466760030922</v>
       </c>
     </row>
@@ -11502,19 +11503,19 @@
         <v>23.399117897726601</v>
       </c>
       <c r="E147">
-        <f>$J$3-$J$1*B147^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.574396470909527</v>
       </c>
       <c r="F147">
+        <f t="shared" si="11"/>
+        <v>0.68016543185119094</v>
+      </c>
+      <c r="G147">
         <f t="shared" si="8"/>
-        <v>0.68016543185119094</v>
-      </c>
-      <c r="G147">
-        <f t="shared" si="6"/>
         <v>1.2165250944406409</v>
       </c>
       <c r="H147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.615642992167242</v>
       </c>
     </row>
@@ -11532,19 +11533,19 @@
         <v>23.455729545453998</v>
       </c>
       <c r="E148">
-        <f>$J$3-$J$1*B148^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.577707736775544</v>
       </c>
       <c r="F148">
+        <f t="shared" si="11"/>
+        <v>0.77092229651498434</v>
+      </c>
+      <c r="G148">
         <f t="shared" si="8"/>
-        <v>0.77092229651498434</v>
-      </c>
-      <c r="G148">
-        <f t="shared" si="6"/>
         <v>1.2132138285746237</v>
       </c>
       <c r="H148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.668943374028622</v>
       </c>
     </row>
@@ -11562,19 +11563,19 @@
         <v>23.590155397725201</v>
       </c>
       <c r="E149">
-        <f>$J$3-$J$1*B149^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.594487518659982</v>
       </c>
       <c r="F149">
+        <f t="shared" si="11"/>
+        <v>0.99135452540223312</v>
+      </c>
+      <c r="G149">
         <f t="shared" si="8"/>
-        <v>0.99135452540223312</v>
-      </c>
-      <c r="G149">
-        <f t="shared" si="6"/>
         <v>1.1964340466901859</v>
       </c>
       <c r="H149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.786589444415387</v>
       </c>
     </row>
@@ -11592,19 +11593,19 @@
         <v>21.543643181818201</v>
       </c>
       <c r="E150">
-        <f>$J$3-$J$1*B150^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.596188971230372</v>
       </c>
       <c r="F150">
+        <f t="shared" si="11"/>
+        <v>1.1078526388092913</v>
+      </c>
+      <c r="G150">
         <f t="shared" si="8"/>
-        <v>1.1078526388092913</v>
-      </c>
-      <c r="G150">
-        <f t="shared" si="6"/>
         <v>1.1947325941197953</v>
       </c>
       <c r="H150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22.738375775937996</v>
       </c>
     </row>
@@ -11622,19 +11623,19 @@
         <v>22.5450454545465</v>
       </c>
       <c r="E151">
-        <f>$J$3-$J$1*B151^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.597461370644918</v>
       </c>
       <c r="F151">
+        <f t="shared" si="11"/>
+        <v>2.7474282604364303E-3</v>
+      </c>
+      <c r="G151">
         <f t="shared" si="8"/>
-        <v>2.7474282604364303E-3</v>
-      </c>
-      <c r="G151">
-        <f t="shared" si="6"/>
         <v>1.1934601947052492</v>
       </c>
       <c r="H151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.738505649251749</v>
       </c>
     </row>
@@ -11652,19 +11653,19 @@
         <v>23.488068181819401</v>
       </c>
       <c r="E152">
-        <f>$J$3-$J$1*B152^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.618823237559795</v>
       </c>
       <c r="F152">
+        <f t="shared" si="11"/>
+        <v>0.75558677312088507</v>
+      </c>
+      <c r="G152">
         <f t="shared" si="8"/>
-        <v>0.75558677312088507</v>
-      </c>
-      <c r="G152">
-        <f t="shared" si="6"/>
         <v>1.1720983277903727</v>
       </c>
       <c r="H152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.660166509609773</v>
       </c>
     </row>
@@ -11682,19 +11683,19 @@
         <v>21.958227272727999</v>
       </c>
       <c r="E153">
-        <f>$J$3-$J$1*B153^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.619330695885889</v>
       </c>
       <c r="F153">
+        <f t="shared" si="11"/>
+        <v>0.43705773611107995</v>
+      </c>
+      <c r="G153">
         <f t="shared" si="8"/>
-        <v>0.43705773611107995</v>
-      </c>
-      <c r="G153">
-        <f t="shared" si="6"/>
         <v>1.1715908694642785</v>
       </c>
       <c r="H153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.129818142192278</v>
       </c>
     </row>
@@ -11712,19 +11713,19 @@
         <v>20.344095454545101</v>
       </c>
       <c r="E154">
-        <f>$J$3-$J$1*B154^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.619634925546901</v>
       </c>
       <c r="F154">
+        <f t="shared" si="11"/>
+        <v>5.1780798840871496</v>
+      </c>
+      <c r="G154">
         <f t="shared" si="8"/>
-        <v>5.1780798840871496</v>
-      </c>
-      <c r="G154">
-        <f t="shared" si="6"/>
         <v>1.1712866398032666</v>
       </c>
       <c r="H154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21.515382094348368</v>
       </c>
     </row>
@@ -11742,19 +11743,19 @@
         <v>22.235613636364899</v>
       </c>
       <c r="E155">
-        <f>$J$3-$J$1*B155^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.628378339576557</v>
       </c>
       <c r="F155">
+        <f t="shared" si="11"/>
+        <v>0.15426411208894136</v>
+      </c>
+      <c r="G155">
         <f t="shared" si="8"/>
-        <v>0.15426411208894136</v>
-      </c>
-      <c r="G155">
-        <f t="shared" si="6"/>
         <v>1.1625432257736108</v>
       </c>
       <c r="H155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.39815686213851</v>
       </c>
     </row>
@@ -11772,19 +11773,19 @@
         <v>21.324640909088899</v>
       </c>
       <c r="E156">
-        <f>$J$3-$J$1*B156^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.629174718492855</v>
       </c>
       <c r="F156">
+        <f t="shared" si="11"/>
+        <v>1.7018084598779981</v>
+      </c>
+      <c r="G156">
         <f t="shared" si="8"/>
-        <v>1.7018084598779981</v>
-      </c>
-      <c r="G156">
-        <f t="shared" si="6"/>
         <v>1.1617468468573122</v>
       </c>
       <c r="H156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22.486387755946211</v>
       </c>
     </row>
@@ -11802,19 +11803,19 @@
         <v>23.2176363636373</v>
       </c>
       <c r="E157">
-        <f>$J$3-$J$1*B157^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.636383473674851</v>
       </c>
       <c r="F157">
+        <f t="shared" si="11"/>
+        <v>0.33785492208969958</v>
+      </c>
+      <c r="G157">
         <f t="shared" si="8"/>
-        <v>0.33785492208969958</v>
-      </c>
-      <c r="G157">
-        <f t="shared" si="6"/>
         <v>1.1545380916753167</v>
       </c>
       <c r="H157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.372174455312617</v>
       </c>
     </row>
@@ -11832,19 +11833,19 @@
         <v>22.327330965909201</v>
       </c>
       <c r="E158">
-        <f>$J$3-$J$1*B158^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.64714764319206</v>
       </c>
       <c r="F158">
+        <f t="shared" si="11"/>
+        <v>0.1022827070682481</v>
+      </c>
+      <c r="G158">
         <f t="shared" si="8"/>
-        <v>0.1022827070682481</v>
-      </c>
-      <c r="G158">
-        <f t="shared" si="6"/>
         <v>1.1437739221581076</v>
       </c>
       <c r="H158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.471104888067309</v>
       </c>
     </row>
@@ -11862,19 +11863,19 @@
         <v>23.568698863635099</v>
       </c>
       <c r="E159">
-        <f>$J$3-$J$1*B159^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.64915791770164</v>
       </c>
       <c r="F159">
+        <f t="shared" si="11"/>
+        <v>0.84555555124820081</v>
+      </c>
+      <c r="G159">
         <f t="shared" si="8"/>
-        <v>0.84555555124820081</v>
-      </c>
-      <c r="G159">
-        <f t="shared" si="6"/>
         <v>1.1417636476485278</v>
       </c>
       <c r="H159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>24.710462511283627</v>
       </c>
     </row>
@@ -11892,19 +11893,19 @@
         <v>23.964637499999899</v>
       </c>
       <c r="E160">
-        <f>$J$3-$J$1*B160^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.649635343390834</v>
       </c>
       <c r="F160">
+        <f t="shared" si="11"/>
+        <v>1.729230671886492</v>
+      </c>
+      <c r="G160">
         <f t="shared" si="8"/>
-        <v>1.729230671886492</v>
-      </c>
-      <c r="G160">
-        <f t="shared" si="6"/>
         <v>1.1412862219593336</v>
       </c>
       <c r="H160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>25.105923721959233</v>
       </c>
     </row>
@@ -11922,19 +11923,19 @@
         <v>22.1530568181803</v>
       </c>
       <c r="E161">
-        <f>$J$3-$J$1*B161^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.654478686120708</v>
       </c>
       <c r="F161">
+        <f t="shared" si="11"/>
+        <v>0.25142388964884804</v>
+      </c>
+      <c r="G161">
         <f t="shared" si="8"/>
-        <v>0.25142388964884804</v>
-      </c>
-      <c r="G161">
-        <f t="shared" si="6"/>
         <v>1.1364428792294596</v>
       </c>
       <c r="H161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>23.289499697409759</v>
       </c>
     </row>
@@ -11952,19 +11953,19 @@
         <v>23.749687499999801</v>
       </c>
       <c r="E162">
-        <f>$J$3-$J$1*B162^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.654856534936243</v>
       </c>
       <c r="F162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1986548420620016</v>
       </c>
       <c r="G162">
-        <f t="shared" ref="G162:G225" si="9">$J$3-E162</f>
+        <f t="shared" ref="G162:G225" si="12">$J$3-E162</f>
         <v>1.1360650304139241</v>
       </c>
       <c r="H162">
-        <f t="shared" ref="H162:H225" si="10">D162+G162</f>
+        <f t="shared" ref="H162:H225" si="13">D162+G162</f>
         <v>24.885752530413725</v>
       </c>
     </row>
@@ -11982,19 +11983,19 @@
         <v>21.7564136363622</v>
       </c>
       <c r="E163">
-        <f>$J$3-$J$1*B163^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.65627086814969</v>
       </c>
       <c r="F163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.80974303760024369</v>
       </c>
       <c r="G163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1346506972004775</v>
       </c>
       <c r="H163">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.891064333562678</v>
       </c>
     </row>
@@ -12012,19 +12013,19 @@
         <v>25.356785511363601</v>
       </c>
       <c r="E164">
-        <f>$J$3-$J$1*B164^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.657117503241107</v>
       </c>
       <c r="F164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.2882073540800727</v>
       </c>
       <c r="G164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1338040621090606</v>
       </c>
       <c r="H164">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>26.490589573472661</v>
       </c>
     </row>
@@ -12042,19 +12043,19 @@
         <v>22.698295454543199</v>
       </c>
       <c r="E165">
-        <f>$J$3-$J$1*B165^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.659648612162627</v>
       </c>
       <c r="F165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4935784259888043E-3</v>
       </c>
       <c r="G165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1312729531875405</v>
       </c>
       <c r="H165">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.82956840773074</v>
       </c>
     </row>
@@ -12072,19 +12073,19 @@
         <v>23.175341193181001</v>
       </c>
       <c r="E166">
-        <f>$J$3-$J$1*B166^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.660115894052581</v>
       </c>
       <c r="F166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.26545710886197066</v>
       </c>
       <c r="G166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1308056712975869</v>
       </c>
       <c r="H166">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.306146864478588</v>
       </c>
     </row>
@@ -12102,19 +12103,19 @@
         <v>22.5618448863632</v>
       </c>
       <c r="E167">
-        <f>$J$3-$J$1*B167^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.66817531986711</v>
       </c>
       <c r="F167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1306161089129409E-2</v>
       </c>
       <c r="G167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1227462454830572</v>
       </c>
       <c r="H167">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.684591131846258</v>
       </c>
     </row>
@@ -12132,19 +12133,19 @@
         <v>23.2660386363642</v>
       </c>
       <c r="E168">
-        <f>$J$3-$J$1*B168^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.672291809479599</v>
       </c>
       <c r="F168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.3525352944355325</v>
       </c>
       <c r="G168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1186297558705682</v>
       </c>
       <c r="H168">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.384668392234769</v>
       </c>
     </row>
@@ -12162,19 +12163,19 @@
         <v>24.584823863636299</v>
       </c>
       <c r="E169">
-        <f>$J$3-$J$1*B169^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.673201821576964</v>
       </c>
       <c r="F169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.6542988316871021</v>
       </c>
       <c r="G169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.117719743773204</v>
       </c>
       <c r="H169">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>25.702543607409503</v>
       </c>
     </row>
@@ -12192,19 +12193,19 @@
         <v>22.5888181818164</v>
       </c>
       <c r="E170">
-        <f>$J$3-$J$1*B170^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.677546013237766</v>
       </c>
       <c r="F170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.8726280687383392E-3</v>
       </c>
       <c r="G170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1133755521124016</v>
       </c>
       <c r="H170">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.702193733928802</v>
       </c>
     </row>
@@ -12222,19 +12223,19 @@
         <v>24.041167329544901</v>
       </c>
       <c r="E171">
-        <f>$J$3-$J$1*B171^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.682743139140641</v>
       </c>
       <c r="F171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.8453162810754711</v>
       </c>
       <c r="G171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1081784262095269</v>
       </c>
       <c r="H171">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>25.149345755754428</v>
       </c>
     </row>
@@ -12252,19 +12253,19 @@
         <v>22.117636363635299</v>
       </c>
       <c r="E172">
-        <f>$J$3-$J$1*B172^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.682921344113492</v>
       </c>
       <c r="F172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.31954710915423101</v>
       </c>
       <c r="G172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.1080002212366757</v>
       </c>
       <c r="H172">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.225636584871975</v>
       </c>
     </row>
@@ -12282,19 +12283,19 @@
         <v>21.431859090907899</v>
       </c>
       <c r="E173">
-        <f>$J$3-$J$1*B173^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.693667225254856</v>
       </c>
       <c r="F173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5921597679041481</v>
       </c>
       <c r="G173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0972543400953114</v>
       </c>
       <c r="H173">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.529113431003211</v>
       </c>
     </row>
@@ -12312,19 +12313,19 @@
         <v>21.609058522726102</v>
       </c>
       <c r="E174">
-        <f>$J$3-$J$1*B174^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.696359247967766</v>
       </c>
       <c r="F174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.1822228671110504</v>
       </c>
       <c r="G174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0945623173824011</v>
       </c>
       <c r="H174">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.703620840108503</v>
       </c>
     </row>
@@ -12342,19 +12343,19 @@
         <v>24.309642045453799</v>
       </c>
       <c r="E175">
-        <f>$J$3-$J$1*B175^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.701697467918727</v>
       </c>
       <c r="F175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.5854857644244413</v>
       </c>
       <c r="G175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0892240974314404</v>
       </c>
       <c r="H175">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>25.39886614288524</v>
       </c>
     </row>
@@ -12372,19 +12373,19 @@
         <v>23.545593749998101</v>
       </c>
       <c r="E176">
-        <f>$J$3-$J$1*B176^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.703406581189419</v>
       </c>
       <c r="F176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.70927922730598292</v>
       </c>
       <c r="G176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0875149841607481</v>
       </c>
       <c r="H176">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.633108734158849</v>
       </c>
     </row>
@@ -12402,19 +12403,19 @@
         <v>23.940046590909802</v>
       </c>
       <c r="E177">
-        <f>$J$3-$J$1*B177^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.703747655322164</v>
       </c>
       <c r="F177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.5284350581351249</v>
       </c>
       <c r="G177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0871739100280031</v>
       </c>
       <c r="H177">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>25.027220500937805</v>
       </c>
     </row>
@@ -12432,19 +12433,19 @@
         <v>22.478761363635801</v>
       </c>
       <c r="E178">
-        <f>$J$3-$J$1*B178^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.706890831518425</v>
       </c>
       <c r="F178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.2043054116409276E-2</v>
       </c>
       <c r="G178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0840307338317423</v>
       </c>
       <c r="H178">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.562792097467543</v>
       </c>
     </row>
@@ -12462,19 +12463,19 @@
         <v>23.323646306816599</v>
       </c>
       <c r="E179">
-        <f>$J$3-$J$1*B179^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.706975488833901</v>
       </c>
       <c r="F179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.38028289775144941</v>
       </c>
       <c r="G179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0839460765162663</v>
       </c>
       <c r="H179">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.407592383332865</v>
       </c>
     </row>
@@ -12492,19 +12493,19 @@
         <v>21.878658806817199</v>
       </c>
       <c r="E180">
-        <f>$J$3-$J$1*B180^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.711608070233009</v>
       </c>
       <c r="F180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.69380447542493928</v>
       </c>
       <c r="G180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0793134951171588</v>
       </c>
       <c r="H180">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.957972301934358</v>
       </c>
     </row>
@@ -12522,19 +12523,19 @@
         <v>22.6262045454556</v>
       </c>
       <c r="E181">
-        <f>$J$3-$J$1*B181^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.713531704622362</v>
       </c>
       <c r="F181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>7.6260327281369323E-3</v>
       </c>
       <c r="G181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0773898607278056</v>
       </c>
       <c r="H181">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.703594406183406</v>
       </c>
     </row>
@@ -12552,19 +12553,19 @@
         <v>21.914677840908499</v>
       </c>
       <c r="E182">
-        <f>$J$3-$J$1*B182^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.713531704622362</v>
       </c>
       <c r="F182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.6381674955705664</v>
       </c>
       <c r="G182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0773898607278056</v>
       </c>
       <c r="H182">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.992067701636305</v>
       </c>
     </row>
@@ -12582,19 +12583,19 @@
         <v>22.271181818183202</v>
       </c>
       <c r="E183">
-        <f>$J$3-$J$1*B183^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.717603403861418</v>
       </c>
       <c r="F183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.19929223215945285</v>
       </c>
       <c r="G183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0733181614887499</v>
       </c>
       <c r="H183">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.344499979671951</v>
       </c>
     </row>
@@ -12612,19 +12613,19 @@
         <v>23.935429545454401</v>
       </c>
       <c r="E184">
-        <f>$J$3-$J$1*B184^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.720078663511462</v>
       </c>
       <c r="F184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.4770777662394798</v>
       </c>
       <c r="G184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0708429018387058</v>
       </c>
       <c r="H184">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>25.006272447293107</v>
       </c>
     </row>
@@ -12642,19 +12643,19 @@
         <v>20.3550119318177</v>
       </c>
       <c r="E185">
-        <f>$J$3-$J$1*B185^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.720407695026481</v>
       </c>
       <c r="F185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>5.595097116606051</v>
       </c>
       <c r="G185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0705138703236869</v>
       </c>
       <c r="H185">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>21.425525802141387</v>
       </c>
     </row>
@@ -12672,19 +12673,19 @@
         <v>21.547287500000198</v>
       </c>
       <c r="E186">
-        <f>$J$3-$J$1*B186^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.723276717643504</v>
       </c>
       <c r="F186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.3829506400133138</v>
       </c>
       <c r="G186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0676448477066636</v>
       </c>
       <c r="H186">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.614932347706862</v>
       </c>
     </row>
@@ -12702,19 +12703,19 @@
         <v>23.678116761363199</v>
       </c>
       <c r="E187">
-        <f>$J$3-$J$1*B187^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.729687233609067</v>
       </c>
       <c r="F187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.89951856911592742</v>
       </c>
       <c r="G187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.061234331741101</v>
       </c>
       <c r="H187">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.7393510931043</v>
       </c>
     </row>
@@ -12732,19 +12733,19 @@
         <v>24.319054545455401</v>
       </c>
       <c r="E188">
-        <f>$J$3-$J$1*B188^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.729928907147517</v>
       </c>
       <c r="F188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.52532029432744</v>
       </c>
       <c r="G188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0609926582026503</v>
       </c>
       <c r="H188">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>25.380047203658052</v>
       </c>
     </row>
@@ -12762,19 +12763,19 @@
         <v>22.795769318180799</v>
       </c>
       <c r="E189">
-        <f>$J$3-$J$1*B189^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.738623713523999</v>
       </c>
       <c r="F189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>3.265620131591227E-3</v>
       </c>
       <c r="G189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0522978518261681</v>
       </c>
       <c r="H189">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.848067170006967</v>
       </c>
     </row>
@@ -12792,19 +12793,19 @@
         <v>23.717862215909101</v>
       </c>
       <c r="E190">
-        <f>$J$3-$J$1*B190^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.742948426055989</v>
       </c>
       <c r="F190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.95045689764575725</v>
       </c>
       <c r="G190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0479731392941787</v>
       </c>
       <c r="H190">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.765835355203279</v>
       </c>
     </row>
@@ -12822,19 +12823,19 @@
         <v>22.613955397727199</v>
       </c>
       <c r="E191">
-        <f>$J$3-$J$1*B191^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.745679057592817</v>
       </c>
       <c r="F191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1.7351122568392836E-2</v>
       </c>
       <c r="G191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0452425077573508</v>
       </c>
       <c r="H191">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.65919790548455</v>
       </c>
     </row>
@@ -12852,19 +12853,19 @@
         <v>22.896864506627001</v>
       </c>
       <c r="E192">
-        <f>$J$3-$J$1*B192^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.745756832422803</v>
       </c>
       <c r="F192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.2833529203402016E-2</v>
       </c>
       <c r="G192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0451647329273648</v>
       </c>
       <c r="H192">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.942029239554365</v>
       </c>
     </row>
@@ -12882,19 +12883,19 @@
         <v>21.862493750000201</v>
       </c>
       <c r="E193">
-        <f>$J$3-$J$1*B193^$J$2</f>
+        <f t="shared" si="10"/>
         <v>22.74816119084387</v>
       </c>
       <c r="F193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.7844068157705737</v>
       </c>
       <c r="G193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0427603745062974</v>
       </c>
       <c r="H193">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.905254124506499</v>
       </c>
     </row>
@@ -12912,19 +12913,19 @@
         <v>22.7001590909058</v>
       </c>
       <c r="E194">
-        <f>$J$3-$J$1*B194^$J$2</f>
+        <f t="shared" ref="E194:E257" si="14">$J$3-$J$1*B194^$J$2</f>
         <v>22.750244849664917</v>
       </c>
       <c r="F194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>2.5085832304764682E-3</v>
       </c>
       <c r="G194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.040676715685251</v>
       </c>
       <c r="H194">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.740835806591051</v>
       </c>
     </row>
@@ -12942,19 +12943,19 @@
         <v>23.190581249998601</v>
       </c>
       <c r="E195">
-        <f>$J$3-$J$1*B195^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.755373815199622</v>
       </c>
       <c r="F195">
-        <f t="shared" ref="F195:F258" si="11">(E195-D195)^2</f>
+        <f t="shared" ref="F195:F258" si="15">(E195-D195)^2</f>
         <v>0.18940551130430769</v>
       </c>
       <c r="G195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0355477501505455</v>
       </c>
       <c r="H195">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.226129000149147</v>
       </c>
     </row>
@@ -12972,19 +12973,19 @@
         <v>21.963691193181202</v>
       </c>
       <c r="E196">
-        <f>$J$3-$J$1*B196^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.757802782700026</v>
       </c>
       <c r="F196">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.6306132166081132</v>
       </c>
       <c r="G196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.033118782650142</v>
       </c>
       <c r="H196">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.996809975831344</v>
       </c>
     </row>
@@ -13002,19 +13003,19 @@
         <v>22.905675284089199</v>
       </c>
       <c r="E197">
-        <f>$J$3-$J$1*B197^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.770414169823599</v>
       </c>
       <c r="F197">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.8295569032371565E-2</v>
       </c>
       <c r="G197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0205073955265682</v>
       </c>
       <c r="H197">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.926182679615767</v>
       </c>
     </row>
@@ -13032,19 +13033,19 @@
         <v>23.300051420453499</v>
       </c>
       <c r="E198">
-        <f>$J$3-$J$1*B198^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.772102907713933</v>
       </c>
       <c r="F198">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.27872963210392038</v>
       </c>
       <c r="G198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0188186576362348</v>
       </c>
       <c r="H198">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.318870078089734</v>
       </c>
     </row>
@@ -13062,19 +13063,19 @@
         <v>24.313346022727099</v>
       </c>
       <c r="E199">
-        <f>$J$3-$J$1*B199^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.774222941447295</v>
       </c>
       <c r="F199">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.3688998593282391</v>
       </c>
       <c r="G199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0166986239028724</v>
       </c>
       <c r="H199">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>25.330044646629972</v>
       </c>
     </row>
@@ -13092,19 +13093,19 @@
         <v>22.782544918998099</v>
       </c>
       <c r="E200">
-        <f>$J$3-$J$1*B200^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.780306226544841</v>
       </c>
       <c r="F200">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>5.0117439002724628E-6</v>
       </c>
       <c r="G200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0106153388053265</v>
       </c>
       <c r="H200">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.793160257803425</v>
       </c>
     </row>
@@ -13122,19 +13123,19 @@
         <v>22.935714772726701</v>
       </c>
       <c r="E201">
-        <f>$J$3-$J$1*B201^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.786589084298793</v>
       </c>
       <c r="F201">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.223847094909755E-2</v>
       </c>
       <c r="G201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>1.0043324810513745</v>
       </c>
       <c r="H201">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.940047253778076</v>
       </c>
     </row>
@@ -13152,19 +13153,19 @@
         <v>21.946700000000199</v>
       </c>
       <c r="E202">
-        <f>$J$3-$J$1*B202^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.793410127826824</v>
       </c>
       <c r="F202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.71691804056418063</v>
       </c>
       <c r="G202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.99751143752334315</v>
       </c>
       <c r="H202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.944211437523542</v>
       </c>
     </row>
@@ -13182,19 +13183,19 @@
         <v>21.306259090907901</v>
       </c>
       <c r="E203">
-        <f>$J$3-$J$1*B203^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.793549634564126</v>
       </c>
       <c r="F203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.2120331612492312</v>
       </c>
       <c r="G203">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.99737193078604136</v>
       </c>
       <c r="H203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.303631021693942</v>
       </c>
     </row>
@@ -13212,19 +13213,19 @@
         <v>23.498225331369198</v>
       </c>
       <c r="E204">
-        <f>$J$3-$J$1*B204^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.794176853424226</v>
       </c>
       <c r="F204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.49568425929663273</v>
       </c>
       <c r="G204">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.99674471192594183</v>
       </c>
       <c r="H204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.49497004329514</v>
       </c>
     </row>
@@ -13242,19 +13243,19 @@
         <v>23.2615943181811</v>
       </c>
       <c r="E205">
-        <f>$J$3-$J$1*B205^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.795428541689748</v>
       </c>
       <c r="F205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.21731053117178456</v>
       </c>
       <c r="G205">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.99549302366041914</v>
       </c>
       <c r="H205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.257087341841519</v>
       </c>
     </row>
@@ -13272,19 +13273,19 @@
         <v>22.637957386362</v>
       </c>
       <c r="E206">
-        <f>$J$3-$J$1*B206^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.80053618467214</v>
       </c>
       <c r="F206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.6431865659969071E-2</v>
       </c>
       <c r="G206">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.99038538067802762</v>
       </c>
       <c r="H206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.628342767040028</v>
       </c>
     </row>
@@ -13302,19 +13303,19 @@
         <v>21.822820170454101</v>
       </c>
       <c r="E207">
-        <f>$J$3-$J$1*B207^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.801153230214439</v>
       </c>
       <c r="F207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.95713557582002529</v>
       </c>
       <c r="G207">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.98976833513572871</v>
       </c>
       <c r="H207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>22.812588505589829</v>
       </c>
     </row>
@@ -13332,19 +13333,19 @@
         <v>23.303564488635701</v>
       </c>
       <c r="E208">
-        <f>$J$3-$J$1*B208^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.802589530210675</v>
       </c>
       <c r="F208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.25097590896895633</v>
       </c>
       <c r="G208">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.98833203513949286</v>
       </c>
       <c r="H208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.291896523775193</v>
       </c>
     </row>
@@ -13362,19 +13363,19 @@
         <v>23.336510795453801</v>
       </c>
       <c r="E209">
-        <f>$J$3-$J$1*B209^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.814704698678682</v>
       </c>
       <c r="F209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.2722816026316851</v>
       </c>
       <c r="G209">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.97621686667148566</v>
       </c>
       <c r="H209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.312727662125287</v>
       </c>
     </row>
@@ -13392,19 +13393,19 @@
         <v>23.126397727269602</v>
       </c>
       <c r="E210">
-        <f>$J$3-$J$1*B210^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.819060917002961</v>
       </c>
       <c r="F210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9.4455914944873126E-2</v>
       </c>
       <c r="G210">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.97186064834720653</v>
       </c>
       <c r="H210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.098258375616808</v>
       </c>
     </row>
@@ -13422,19 +13423,19 @@
         <v>23.253680113636399</v>
       </c>
       <c r="E211">
-        <f>$J$3-$J$1*B211^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.820175660128204</v>
       </c>
       <c r="F211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.18792611121143929</v>
       </c>
       <c r="G211">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.97074590522196402</v>
       </c>
       <c r="H211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.224426018858363</v>
       </c>
     </row>
@@ -13452,19 +13453,19 @@
         <v>23.414763636363801</v>
       </c>
       <c r="E212">
-        <f>$J$3-$J$1*B212^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.820372070725178</v>
       </c>
       <c r="F212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.35330133330233449</v>
       </c>
       <c r="G212">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.97054949462498996</v>
       </c>
       <c r="H212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.385313130988791</v>
       </c>
     </row>
@@ -13482,19 +13483,19 @@
         <v>22.569017045453201</v>
       </c>
       <c r="E213">
-        <f>$J$3-$J$1*B213^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.821744359889632</v>
       </c>
       <c r="F213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.3871095462250574E-2</v>
       </c>
       <c r="G213">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.96917720546053587</v>
       </c>
       <c r="H213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.538194250913737</v>
       </c>
     </row>
@@ -13512,19 +13513,19 @@
         <v>23.104632102272699</v>
       </c>
       <c r="E214">
-        <f>$J$3-$J$1*B214^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.8256404299994</v>
       </c>
       <c r="F214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7.7836353197852259E-2</v>
       </c>
       <c r="G214">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.96528113535076798</v>
       </c>
       <c r="H214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.069913237623467</v>
       </c>
     </row>
@@ -13542,19 +13543,19 @@
         <v>22.550670454545401</v>
       </c>
       <c r="E215">
-        <f>$J$3-$J$1*B215^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.83109792529967</v>
       </c>
       <c r="F215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7.8639566353636323E-2</v>
       </c>
       <c r="G215">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.95982364005049803</v>
       </c>
       <c r="H215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.510494094595899</v>
       </c>
     </row>
@@ -13572,19 +13573,19 @@
         <v>22.6141110795438</v>
       </c>
       <c r="E216">
-        <f>$J$3-$J$1*B216^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.835917171698867</v>
       </c>
       <c r="F216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.9197942517101911E-2</v>
       </c>
       <c r="G216">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.95500439365130063</v>
       </c>
       <c r="H216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.569115473195101</v>
       </c>
     </row>
@@ -13602,19 +13603,19 @@
         <v>23.396681818179001</v>
       </c>
       <c r="E217">
-        <f>$J$3-$J$1*B217^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.837427368624422</v>
       </c>
       <c r="F217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.31276553934659568</v>
       </c>
       <c r="G217">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.95349419672574598</v>
       </c>
       <c r="H217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.350176014904747</v>
       </c>
     </row>
@@ -13632,19 +13633,19 @@
         <v>23.287282954544899</v>
       </c>
       <c r="E218">
-        <f>$J$3-$J$1*B218^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.841986927104365</v>
       </c>
       <c r="F218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.198288552054321</v>
       </c>
       <c r="G218">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94893463824580238</v>
       </c>
       <c r="H218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.236217592790702</v>
       </c>
     </row>
@@ -13662,19 +13663,19 @@
         <v>22.3499230113617</v>
       </c>
       <c r="E219">
-        <f>$J$3-$J$1*B219^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.842979515014665</v>
       </c>
       <c r="F219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.243104715794487</v>
       </c>
       <c r="G219">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94794205033550227</v>
       </c>
       <c r="H219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.297865061697202</v>
       </c>
     </row>
@@ -13692,19 +13693,19 @@
         <v>23.495262499999701</v>
       </c>
       <c r="E220">
-        <f>$J$3-$J$1*B220^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.844155079972712</v>
       </c>
       <c r="F220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.4239408724142017</v>
       </c>
       <c r="G220">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94676648537745578</v>
       </c>
       <c r="H220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.442028985377156</v>
       </c>
     </row>
@@ -13722,19 +13723,19 @@
         <v>23.239856534090201</v>
       </c>
       <c r="E221">
-        <f>$J$3-$J$1*B221^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.847416433429053</v>
       </c>
       <c r="F221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.15400923260693161</v>
       </c>
       <c r="G221">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94350513192111407</v>
       </c>
       <c r="H221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.183361666011315</v>
       </c>
     </row>
@@ -13752,19 +13753,19 @@
         <v>23.523427272726501</v>
       </c>
       <c r="E222">
-        <f>$J$3-$J$1*B222^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.850773343246416</v>
       </c>
       <c r="F222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.45246330884499836</v>
       </c>
       <c r="G222">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.94014822210375115</v>
       </c>
       <c r="H222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.463575494830252</v>
       </c>
     </row>
@@ -13782,19 +13783,19 @@
         <v>22.536009090908301</v>
       </c>
       <c r="E223">
-        <f>$J$3-$J$1*B223^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.857583851856617</v>
       </c>
       <c r="F223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.10341032687896655</v>
       </c>
       <c r="G223">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.93333771349355032</v>
       </c>
       <c r="H223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>23.469346804401852</v>
       </c>
     </row>
@@ -13812,19 +13813,19 @@
         <v>23.527920454541899</v>
       </c>
       <c r="E224">
-        <f>$J$3-$J$1*B224^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.858240699446224</v>
       </c>
       <c r="F224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.44847097438500355</v>
       </c>
       <c r="G224">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.93268086590394361</v>
       </c>
       <c r="H224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.460601320445843</v>
       </c>
     </row>
@@ -13842,19 +13843,19 @@
         <v>23.460443181815201</v>
       </c>
       <c r="E225">
-        <f>$J$3-$J$1*B225^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.859729542074845</v>
       </c>
       <c r="F225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.36085687697010577</v>
       </c>
       <c r="G225">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.93119202327532236</v>
       </c>
       <c r="H225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>24.391635205090523</v>
       </c>
     </row>
@@ -13872,19 +13873,19 @@
         <v>23.592456818180899</v>
       </c>
       <c r="E226">
-        <f>$J$3-$J$1*B226^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.861272083986211</v>
       </c>
       <c r="F226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.53463111551935649</v>
       </c>
       <c r="G226">
-        <f t="shared" ref="G226:G289" si="12">$J$3-E226</f>
+        <f t="shared" ref="G226:G289" si="16">$J$3-E226</f>
         <v>0.9296494813639562</v>
       </c>
       <c r="H226">
-        <f t="shared" ref="H226:H289" si="13">D226+G226</f>
+        <f t="shared" ref="H226:H289" si="17">D226+G226</f>
         <v>24.522106299544856</v>
       </c>
     </row>
@@ -13902,19 +13903,19 @@
         <v>22.4778619318175</v>
       </c>
       <c r="E227">
-        <f>$J$3-$J$1*B227^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.865922782160297</v>
       </c>
       <c r="F227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.15059122356877427</v>
       </c>
       <c r="G227">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.92499878318987072</v>
       </c>
       <c r="H227">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.402860715007371</v>
       </c>
     </row>
@@ -13932,19 +13933,19 @@
         <v>23.089176136362699</v>
       </c>
       <c r="E228">
-        <f>$J$3-$J$1*B228^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.866098324676848</v>
       </c>
       <c r="F228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.9763710066547978E-2</v>
       </c>
       <c r="G228">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.92482324067331945</v>
       </c>
       <c r="H228">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.013999377036019</v>
       </c>
     </row>
@@ -13962,19 +13963,19 @@
         <v>22.689636363632602</v>
       </c>
       <c r="E229">
-        <f>$J$3-$J$1*B229^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.872309061499035</v>
       </c>
       <c r="F229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.3369314545801207E-2</v>
       </c>
       <c r="G229">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.9186125038511328</v>
       </c>
       <c r="H229">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.608248867483734</v>
       </c>
     </row>
@@ -13992,19 +13993,19 @@
         <v>22.776101620029198</v>
       </c>
       <c r="E230">
-        <f>$J$3-$J$1*B230^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.873344340559662</v>
       </c>
       <c r="F230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>9.4561466961657972E-3</v>
       </c>
       <c r="G230">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.91757722479050585</v>
       </c>
       <c r="H230">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.693678844819704</v>
       </c>
     </row>
@@ -14022,19 +14023,19 @@
         <v>22.0977820324003</v>
       </c>
       <c r="E231">
-        <f>$J$3-$J$1*B231^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.873746216260027</v>
       </c>
       <c r="F231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.60212041463309307</v>
       </c>
       <c r="G231">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.9171753490901402</v>
       </c>
       <c r="H231">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.01495738149044</v>
       </c>
     </row>
@@ -14052,19 +14053,19 @@
         <v>23.872668750000098</v>
       </c>
       <c r="E232">
-        <f>$J$3-$J$1*B232^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.878593661483922</v>
       </c>
       <c r="F232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.98818528160844354</v>
       </c>
       <c r="G232">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.91232790386624529</v>
       </c>
       <c r="H232">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.784996653866344</v>
       </c>
     </row>
@@ -14082,19 +14083,19 @@
         <v>23.675057102272099</v>
       </c>
       <c r="E233">
-        <f>$J$3-$J$1*B233^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.888940844981974</v>
       </c>
       <c r="F233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.61797876997583401</v>
       </c>
       <c r="G233">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.90198072036819354</v>
       </c>
       <c r="H233">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.577037822640293</v>
       </c>
     </row>
@@ -14112,19 +14113,19 @@
         <v>24.546894602271799</v>
       </c>
       <c r="E234">
-        <f>$J$3-$J$1*B234^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.889712784661707</v>
       </c>
       <c r="F234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.7462515766174858</v>
       </c>
       <c r="G234">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.90120878068846011</v>
       </c>
       <c r="H234">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25.448103382960259</v>
       </c>
     </row>
@@ -14142,19 +14143,19 @@
         <v>23.4960500000001</v>
       </c>
       <c r="E235">
-        <f>$J$3-$J$1*B235^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.893167577547633</v>
       </c>
       <c r="F235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.36346721530215481</v>
       </c>
       <c r="G235">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.89775398780253468</v>
       </c>
       <c r="H235">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.393803987802634</v>
       </c>
     </row>
@@ -14172,19 +14173,19 @@
         <v>23.1077877840901</v>
       </c>
       <c r="E236">
-        <f>$J$3-$J$1*B236^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.895996032189903</v>
       </c>
       <c r="F236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>4.4855746172954625E-2</v>
       </c>
       <c r="G236">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.89492553316026502</v>
       </c>
       <c r="H236">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.002713317250365</v>
       </c>
     </row>
@@ -14202,19 +14203,19 @@
         <v>22.766708806818102</v>
       </c>
       <c r="E237">
-        <f>$J$3-$J$1*B237^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.898373199707247</v>
       </c>
       <c r="F237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.7335512354867369E-2</v>
       </c>
       <c r="G237">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.89254836564292006</v>
       </c>
       <c r="H237">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.659257172461022</v>
       </c>
     </row>
@@ -14232,19 +14233,19 @@
         <v>23.20125625</v>
       </c>
       <c r="E238">
-        <f>$J$3-$J$1*B238^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.901698023056539</v>
       </c>
       <c r="F238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>8.9735131329509887E-2</v>
       </c>
       <c r="G238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.8892235422936281</v>
       </c>
       <c r="H238">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.090479792293628</v>
       </c>
     </row>
@@ -14262,19 +14263,19 @@
         <v>23.332596590909102</v>
       </c>
       <c r="E239">
-        <f>$J$3-$J$1*B239^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.902444806242983</v>
       </c>
       <c r="F239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.18503055785144734</v>
       </c>
       <c r="G239">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.88847675910718493</v>
       </c>
       <c r="H239">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.221073350016287</v>
       </c>
     </row>
@@ -14292,19 +14293,19 @@
         <v>22.786243181817699</v>
       </c>
       <c r="E240">
-        <f>$J$3-$J$1*B240^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.90425236169974</v>
       </c>
       <c r="F240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.3926166536431823E-2</v>
       </c>
       <c r="G240">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.88666920365042756</v>
       </c>
       <c r="H240">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.672912385468127</v>
       </c>
     </row>
@@ -14322,19 +14323,19 @@
         <v>22.8796846590906</v>
       </c>
       <c r="E241">
-        <f>$J$3-$J$1*B241^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.905681690190367</v>
       </c>
       <c r="F241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.7584562600223118E-4</v>
       </c>
       <c r="G241">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.88523987515980096</v>
       </c>
       <c r="H241">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.764924534250401</v>
       </c>
     </row>
@@ -14352,19 +14353,19 @@
         <v>17.650145454544099</v>
       </c>
       <c r="E242">
-        <f>$J$3-$J$1*B242^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.906420714963296</v>
       </c>
       <c r="F242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>27.628429613294905</v>
       </c>
       <c r="G242">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.88450085038687121</v>
       </c>
       <c r="H242">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>18.53464630493097</v>
       </c>
     </row>
@@ -14382,19 +14383,19 @@
         <v>19.6449005681818</v>
       </c>
       <c r="E243">
-        <f>$J$3-$J$1*B243^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.907368782861557</v>
       </c>
       <c r="F243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>10.643698851795719</v>
       </c>
       <c r="G243">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.88355278248861069</v>
       </c>
       <c r="H243">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>20.528453350670411</v>
       </c>
     </row>
@@ -14412,19 +14413,19 @@
         <v>23.405014772727998</v>
       </c>
       <c r="E244">
-        <f>$J$3-$J$1*B244^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.912748695671908</v>
       </c>
       <c r="F244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.24232589062019261</v>
       </c>
       <c r="G244">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.87817286967825936</v>
       </c>
       <c r="H244">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.283187642406258</v>
       </c>
     </row>
@@ -14442,19 +14443,19 @@
         <v>22.570516477272498</v>
       </c>
       <c r="E245">
-        <f>$J$3-$J$1*B245^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.915229904611504</v>
       </c>
       <c r="F245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.11882734698780387</v>
       </c>
       <c r="G245">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.87569166073866356</v>
       </c>
       <c r="H245">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.446208138011162</v>
       </c>
     </row>
@@ -14472,19 +14473,19 @@
         <v>21.916462444771401</v>
       </c>
       <c r="E246">
-        <f>$J$3-$J$1*B246^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.916104759748645</v>
       </c>
       <c r="F246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.99928475789306348</v>
       </c>
       <c r="G246">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.87481680560152242</v>
       </c>
       <c r="H246">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>22.791279250372924</v>
       </c>
     </row>
@@ -14502,19 +14503,19 @@
         <v>22.447390340908498</v>
       </c>
       <c r="E247">
-        <f>$J$3-$J$1*B247^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.919074316471637</v>
       </c>
       <c r="F247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.22248577280304729</v>
       </c>
       <c r="G247">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.87184724887853093</v>
       </c>
       <c r="H247">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.319237589787029</v>
       </c>
     </row>
@@ -14532,19 +14533,19 @@
         <v>22.917831818181401</v>
       </c>
       <c r="E248">
-        <f>$J$3-$J$1*B248^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.920296250921584</v>
       </c>
       <c r="F248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.0734287308860989E-6</v>
       </c>
       <c r="G248">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.87062531442858315</v>
       </c>
       <c r="H248">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.788457132609985</v>
       </c>
     </row>
@@ -14562,19 +14563,19 @@
         <v>20.189938920454502</v>
       </c>
       <c r="E249">
-        <f>$J$3-$J$1*B249^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.921564869311062</v>
       </c>
       <c r="F249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>7.4617803244665053</v>
       </c>
       <c r="G249">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.86935669603910526</v>
       </c>
       <c r="H249">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>21.059295616493607</v>
       </c>
     </row>
@@ -14592,19 +14593,19 @@
         <v>23.492843749999999</v>
       </c>
       <c r="E250">
-        <f>$J$3-$J$1*B250^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.921716814531472</v>
       </c>
       <c r="F250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.32618597641767111</v>
       </c>
       <c r="G250">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.86920475081869597</v>
       </c>
       <c r="H250">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.362048500818695</v>
       </c>
     </row>
@@ -14622,19 +14623,19 @@
         <v>22.750978977272201</v>
       </c>
       <c r="E251">
-        <f>$J$3-$J$1*B251^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.921767449205344</v>
       </c>
       <c r="F251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>2.9168702145258033E-2</v>
       </c>
       <c r="G251">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.86915411614482352</v>
       </c>
       <c r="H251">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.620133093417024</v>
       </c>
     </row>
@@ -14652,19 +14653,19 @@
         <v>23.725506249999199</v>
       </c>
       <c r="E252">
-        <f>$J$3-$J$1*B252^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.925545589428772</v>
       </c>
       <c r="F252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.63993705846027427</v>
       </c>
       <c r="G252">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.86537597592139548</v>
       </c>
       <c r="H252">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.590882225920595</v>
       </c>
     </row>
@@ -14682,19 +14683,19 @@
         <v>23.106875000000201</v>
       </c>
       <c r="E253">
-        <f>$J$3-$J$1*B253^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.928092981736754</v>
       </c>
       <c r="F253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>3.1963010054351725E-2</v>
       </c>
       <c r="G253">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.86282858361341397</v>
       </c>
       <c r="H253">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.969703583613615</v>
       </c>
     </row>
@@ -14712,19 +14713,19 @@
         <v>22.8878286931816</v>
       </c>
       <c r="E254">
-        <f>$J$3-$J$1*B254^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.928092981736754</v>
       </c>
       <c r="F254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.6212129328526752E-3</v>
       </c>
       <c r="G254">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.86282858361341397</v>
       </c>
       <c r="H254">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.750657276795014</v>
       </c>
     </row>
@@ -14742,19 +14743,19 @@
         <v>23.283591477272001</v>
       </c>
       <c r="E255">
-        <f>$J$3-$J$1*B255^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.930919504649726</v>
       </c>
       <c r="F255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.12437752027328677</v>
       </c>
       <c r="G255">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.86000206070044172</v>
       </c>
       <c r="H255">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.143593537972443</v>
       </c>
     </row>
@@ -14772,19 +14773,19 @@
         <v>20.2929772727272</v>
       </c>
       <c r="E256">
-        <f>$J$3-$J$1*B256^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.931067672437717</v>
       </c>
       <c r="F256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>6.9595209570447967</v>
       </c>
       <c r="G256">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.85985389291245085</v>
       </c>
       <c r="H256">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>21.15283116563965</v>
       </c>
     </row>
@@ -14802,19 +14803,19 @@
         <v>22.487537499999799</v>
       </c>
       <c r="E257">
-        <f>$J$3-$J$1*B257^$J$2</f>
+        <f t="shared" si="14"/>
         <v>22.932300097759182</v>
       </c>
       <c r="F257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.1978137683656741</v>
       </c>
       <c r="G257">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.85862146759098579</v>
       </c>
       <c r="H257">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.346158967590785</v>
       </c>
     </row>
@@ -14832,19 +14833,19 @@
         <v>21.746068181816899</v>
       </c>
       <c r="E258">
-        <f>$J$3-$J$1*B258^$J$2</f>
+        <f t="shared" ref="E258:E301" si="18">$J$3-$J$1*B258^$J$2</f>
         <v>22.932349309284962</v>
       </c>
       <c r="F258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>1.4072629133869006</v>
       </c>
       <c r="G258">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.85857225606520515</v>
       </c>
       <c r="H258">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>22.604640437882104</v>
       </c>
     </row>
@@ -14862,19 +14863,19 @@
         <v>22.5243994318175</v>
       </c>
       <c r="E259">
-        <f>$J$3-$J$1*B259^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.934997020757407</v>
       </c>
       <c r="F259">
-        <f t="shared" ref="F259:F301" si="14">(E259-D259)^2</f>
+        <f t="shared" ref="F259:F301" si="19">(E259-D259)^2</f>
         <v>0.16859038004326535</v>
       </c>
       <c r="G259">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.85592454459276013</v>
       </c>
       <c r="H259">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.38032397641026</v>
       </c>
     </row>
@@ -14892,19 +14893,19 @@
         <v>23.5170661931814</v>
       </c>
       <c r="E260">
-        <f>$J$3-$J$1*B260^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.936118990491622</v>
       </c>
       <c r="F260">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.33749965231307794</v>
       </c>
       <c r="G260">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.85480257485854594</v>
       </c>
       <c r="H260">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.371868768039946</v>
       </c>
     </row>
@@ -14922,19 +14923,19 @@
         <v>21.854173295452998</v>
       </c>
       <c r="E261">
-        <f>$J$3-$J$1*B261^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.938352696078631</v>
       </c>
       <c r="F261">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1754449727409566</v>
       </c>
       <c r="G261">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.8525688692715363</v>
       </c>
       <c r="H261">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>22.706742164724535</v>
       </c>
     </row>
@@ -14952,19 +14953,19 @@
         <v>23.214140909090698</v>
       </c>
       <c r="E262">
-        <f>$J$3-$J$1*B262^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.956575218179871</v>
       </c>
       <c r="F262">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.6340085134371576E-2</v>
       </c>
       <c r="G262">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.8343463471702961</v>
       </c>
       <c r="H262">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.048487256260994</v>
       </c>
     </row>
@@ -14982,19 +14983,19 @@
         <v>23.839237499998699</v>
       </c>
       <c r="E263">
-        <f>$J$3-$J$1*B263^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.959509546459913</v>
       </c>
       <c r="F263">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.77392127223754137</v>
       </c>
       <c r="G263">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.83141201889025496</v>
       </c>
       <c r="H263">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.670649518888954</v>
       </c>
     </row>
@@ -15012,19 +15013,19 @@
         <v>23.3440227272736</v>
       </c>
       <c r="E264">
-        <f>$J$3-$J$1*B264^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.960239381402214</v>
       </c>
       <c r="F264">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.14728965656823587</v>
       </c>
       <c r="G264">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.83068218394795323</v>
       </c>
       <c r="H264">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.174704911221554</v>
       </c>
     </row>
@@ -15042,19 +15043,19 @@
         <v>21.781120738634499</v>
       </c>
       <c r="E265">
-        <f>$J$3-$J$1*B265^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.961921428765535</v>
       </c>
       <c r="F265">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3942902698139319</v>
       </c>
       <c r="G265">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.82900013658463223</v>
       </c>
       <c r="H265">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>22.610120875219131</v>
       </c>
     </row>
@@ -15072,19 +15073,19 @@
         <v>22.406011079544399</v>
       </c>
       <c r="E266">
-        <f>$J$3-$J$1*B266^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.966024845890583</v>
       </c>
       <c r="F266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.31361541849723878</v>
       </c>
       <c r="G266">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.8248967194595842</v>
       </c>
       <c r="H266">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.230907799003983</v>
       </c>
     </row>
@@ -15102,19 +15103,19 @@
         <v>23.826540909090198</v>
       </c>
       <c r="E267">
-        <f>$J$3-$J$1*B267^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.976971841277756</v>
       </c>
       <c r="F267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.72176760098370263</v>
       </c>
       <c r="G267">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.81394972407241184</v>
       </c>
       <c r="H267">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.64049063316261</v>
       </c>
     </row>
@@ -15132,19 +15133,19 @@
         <v>23.335081250000101</v>
       </c>
       <c r="E268">
-        <f>$J$3-$J$1*B268^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.981505622673108</v>
       </c>
       <c r="F268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.1250157242396768</v>
       </c>
       <c r="G268">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.80941594267705952</v>
       </c>
       <c r="H268">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.144497192677161</v>
       </c>
     </row>
@@ -15162,19 +15163,19 @@
         <v>22.7626227272718</v>
       </c>
       <c r="E269">
-        <f>$J$3-$J$1*B269^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.984197812844567</v>
       </c>
       <c r="F269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.9095518546578704E-2</v>
       </c>
       <c r="G269">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.8067237525056008</v>
       </c>
       <c r="H269">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.569346479777401</v>
       </c>
     </row>
@@ -15192,19 +15193,19 @@
         <v>23.204030681819098</v>
       </c>
       <c r="E270">
-        <f>$J$3-$J$1*B270^$J$2</f>
+        <f t="shared" si="18"/>
         <v>22.99085894148169</v>
       </c>
       <c r="F270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.5442190878479415E-2</v>
       </c>
       <c r="G270">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.80006262386847737</v>
       </c>
       <c r="H270">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.004093305687576</v>
       </c>
     </row>
@@ -15222,19 +15223,19 @@
         <v>24.270059659090101</v>
       </c>
       <c r="E271">
-        <f>$J$3-$J$1*B271^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.013629711844438</v>
       </c>
       <c r="F271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.5786162123357419</v>
       </c>
       <c r="G271">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.77729185350573005</v>
       </c>
       <c r="H271">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>25.047351512595831</v>
       </c>
     </row>
@@ -15252,19 +15253,19 @@
         <v>23.4082732954543</v>
       </c>
       <c r="E272">
-        <f>$J$3-$J$1*B272^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.014759979100635</v>
       </c>
       <c r="F272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.15485273014766002</v>
       </c>
       <c r="G272">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.77616158624953258</v>
       </c>
       <c r="H272">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.184434881703833</v>
       </c>
     </row>
@@ -15282,19 +15283,19 @@
         <v>23.071420454545098</v>
       </c>
       <c r="E273">
-        <f>$J$3-$J$1*B273^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.018089437279613</v>
       </c>
       <c r="F273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.8441974025714654E-3</v>
       </c>
       <c r="G273">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.77283212807055435</v>
       </c>
       <c r="H273">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.844252582615653</v>
       </c>
     </row>
@@ -15312,19 +15313,19 @@
         <v>23.745448011363202</v>
       </c>
       <c r="E274">
-        <f>$J$3-$J$1*B274^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.018127956522271</v>
       </c>
       <c r="F274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.52899446217381441</v>
       </c>
       <c r="G274">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.77279360882789661</v>
       </c>
       <c r="H274">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.518241620191098</v>
       </c>
     </row>
@@ -15342,19 +15343,19 @@
         <v>23.026168749998501</v>
       </c>
       <c r="E275">
-        <f>$J$3-$J$1*B275^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.021957453864715</v>
       </c>
       <c r="F275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.7735015126438217E-5</v>
       </c>
       <c r="G275">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.76896411148545241</v>
       </c>
       <c r="H275">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.795132861483953</v>
       </c>
     </row>
@@ -15372,19 +15373,19 @@
         <v>22.713579829545399</v>
       </c>
       <c r="E276">
-        <f>$J$3-$J$1*B276^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.032153981512931</v>
       </c>
       <c r="F276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.10148949030183205</v>
       </c>
       <c r="G276">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.75876758383723697</v>
       </c>
       <c r="H276">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.472347413382636</v>
       </c>
     </row>
@@ -15402,19 +15403,19 @@
         <v>23.351892045454498</v>
       </c>
       <c r="E277">
-        <f>$J$3-$J$1*B277^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.03970584520955</v>
       </c>
       <c r="F277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>9.746022362337893E-2</v>
       </c>
       <c r="G277">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.75121572014061755</v>
       </c>
       <c r="H277">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.103107765595116</v>
       </c>
     </row>
@@ -15432,19 +15433,19 @@
         <v>22.257567613635899</v>
       </c>
       <c r="E278">
-        <f>$J$3-$J$1*B278^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.040929574382876</v>
       </c>
       <c r="F278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.61365596154534741</v>
       </c>
       <c r="G278">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.74999199096729185</v>
       </c>
       <c r="H278">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.007559604603191</v>
       </c>
     </row>
@@ -15462,19 +15463,19 @@
         <v>22.892099999998798</v>
       </c>
       <c r="E279">
-        <f>$J$3-$J$1*B279^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.062258050699008</v>
       </c>
       <c r="F279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>2.8953762218094956E-2</v>
       </c>
       <c r="G279">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.72866351465115997</v>
       </c>
       <c r="H279">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.620763514649958</v>
       </c>
     </row>
@@ -15492,19 +15493,19 @@
         <v>23.6738363636358</v>
       </c>
       <c r="E280">
-        <f>$J$3-$J$1*B280^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.067619918046496</v>
       </c>
       <c r="F280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.36749837890292958</v>
       </c>
       <c r="G280">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.7233016473036713</v>
       </c>
       <c r="H280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.397138010939472</v>
       </c>
     </row>
@@ -15522,19 +15523,19 @@
         <v>23.864204261363501</v>
       </c>
       <c r="E281">
-        <f>$J$3-$J$1*B281^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.110341151827495</v>
       </c>
       <c r="F281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.5683095879192962</v>
       </c>
       <c r="G281">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.68058041352267296</v>
       </c>
       <c r="H281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>24.544784674886174</v>
       </c>
     </row>
@@ -15552,19 +15553,19 @@
         <v>22.825743181817899</v>
       </c>
       <c r="E282">
-        <f>$J$3-$J$1*B282^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.117054880030885</v>
       </c>
       <c r="F282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>8.4862505515734071E-2</v>
       </c>
       <c r="G282">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.67386668531928251</v>
       </c>
       <c r="H282">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.499609867137181</v>
       </c>
     </row>
@@ -15582,19 +15583,19 @@
         <v>22.767268465908501</v>
       </c>
       <c r="E283">
-        <f>$J$3-$J$1*B283^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.117754113517265</v>
       </c>
       <c r="F283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.12284018917973462</v>
       </c>
       <c r="G283">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.67316745183290294</v>
       </c>
       <c r="H283">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.440435917741404</v>
       </c>
     </row>
@@ -15612,19 +15613,19 @@
         <v>21.798055681817701</v>
       </c>
       <c r="E284">
-        <f>$J$3-$J$1*B284^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.118535253456908</v>
       </c>
       <c r="F284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.7436662991164655</v>
       </c>
       <c r="G284">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.67238631189325915</v>
       </c>
       <c r="H284">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>22.47044199371096</v>
       </c>
     </row>
@@ -15642,19 +15643,19 @@
         <v>23.2072178977267</v>
       </c>
       <c r="E285">
-        <f>$J$3-$J$1*B285^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.126990715707212</v>
       </c>
       <c r="F285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>6.4364007347880899E-3</v>
       </c>
       <c r="G285">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.66393084964295568</v>
       </c>
       <c r="H285">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.871148747369656</v>
       </c>
     </row>
@@ -15672,19 +15673,19 @@
         <v>22.374655965908399</v>
       </c>
       <c r="E286">
-        <f>$J$3-$J$1*B286^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.133859343020553</v>
       </c>
       <c r="F286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.57638976781849993</v>
       </c>
       <c r="G286">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.65706222232961409</v>
       </c>
       <c r="H286">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.031718188238013</v>
       </c>
     </row>
@@ -15702,19 +15703,19 @@
         <v>22.6482562499991</v>
       </c>
       <c r="E287">
-        <f>$J$3-$J$1*B287^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.157782180591099</v>
       </c>
       <c r="F287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.2596166739456417</v>
       </c>
       <c r="G287">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.63313938475906895</v>
       </c>
       <c r="H287">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.281395634758169</v>
       </c>
     </row>
@@ -15732,19 +15733,19 @@
         <v>23.218541193180599</v>
       </c>
       <c r="E288">
-        <f>$J$3-$J$1*B288^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.162750236787044</v>
       </c>
       <c r="F288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.1126308153075089E-3</v>
       </c>
       <c r="G288">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.62817132856312341</v>
       </c>
       <c r="H288">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.846712521743722</v>
       </c>
     </row>
@@ -15762,19 +15763,19 @@
         <v>23.097433238636398</v>
       </c>
       <c r="E289">
-        <f>$J$3-$J$1*B289^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.174293803472846</v>
       </c>
       <c r="F289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>5.9075464269777904E-3</v>
       </c>
       <c r="G289">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>0.61662776187732149</v>
       </c>
       <c r="H289">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>23.71406100051372</v>
       </c>
     </row>
@@ -15792,19 +15793,19 @@
         <v>22.7044886363621</v>
       </c>
       <c r="E290">
-        <f>$J$3-$J$1*B290^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.179168328128632</v>
       </c>
       <c r="F290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.22532080977556995</v>
       </c>
       <c r="G290">
-        <f t="shared" ref="G290:G301" si="15">$J$3-E290</f>
+        <f t="shared" ref="G290:G301" si="20">$J$3-E290</f>
         <v>0.61175323722153507</v>
       </c>
       <c r="H290">
-        <f t="shared" ref="H290:H301" si="16">D290+G290</f>
+        <f t="shared" ref="H290:H301" si="21">D290+G290</f>
         <v>23.316241873583635</v>
       </c>
     </row>
@@ -15822,19 +15823,19 @@
         <v>22.6884360795436</v>
       </c>
       <c r="E291">
-        <f>$J$3-$J$1*B291^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.188610524580554</v>
       </c>
       <c r="F291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.25017447546802524</v>
       </c>
       <c r="G291">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.60231104076961373</v>
       </c>
       <c r="H291">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>23.290747120313213</v>
       </c>
     </row>
@@ -15852,19 +15853,19 @@
         <v>23.1744977272729</v>
       </c>
       <c r="E292">
-        <f>$J$3-$J$1*B292^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.209374127016616</v>
       </c>
       <c r="F292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.2163632590834758E-3</v>
       </c>
       <c r="G292">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.58154743833355127</v>
       </c>
       <c r="H292">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>23.756045165606452</v>
       </c>
     </row>
@@ -15882,19 +15883,19 @@
         <v>23.9432397727272</v>
       </c>
       <c r="E293">
-        <f>$J$3-$J$1*B293^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.221021078056769</v>
       </c>
       <c r="F293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.52159984293146155</v>
       </c>
       <c r="G293">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.56990048729339904</v>
       </c>
       <c r="H293">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>24.513140260020599</v>
       </c>
     </row>
@@ -15912,19 +15913,19 @@
         <v>23.212562215908399</v>
       </c>
       <c r="E294">
-        <f>$J$3-$J$1*B294^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.230813513101499</v>
       </c>
       <c r="F294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>3.3310984923084911E-4</v>
       </c>
       <c r="G294">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.560108052248669</v>
       </c>
       <c r="H294">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>23.772670268157068</v>
       </c>
     </row>
@@ -15942,19 +15943,19 @@
         <v>24.3200463068179</v>
       </c>
       <c r="E295">
-        <f>$J$3-$J$1*B295^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.23363771120404</v>
       </c>
       <c r="F295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.1802836366236815</v>
       </c>
       <c r="G295">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.55728385414612802</v>
       </c>
       <c r="H295">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>24.877330160964028</v>
       </c>
     </row>
@@ -15972,19 +15973,19 @@
         <v>22.029110795454301</v>
       </c>
       <c r="E296">
-        <f>$J$3-$J$1*B296^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.334355387535243</v>
       </c>
       <c r="F296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.7036634451565462</v>
       </c>
       <c r="G296">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.45656617781492415</v>
       </c>
       <c r="H296">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>22.485676973269225</v>
       </c>
     </row>
@@ -16002,19 +16003,19 @@
         <v>23.849884659090499</v>
       </c>
       <c r="E297">
-        <f>$J$3-$J$1*B297^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.341216151313017</v>
       </c>
       <c r="F297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.25874365080457068</v>
       </c>
       <c r="G297">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.44970541403715103</v>
       </c>
       <c r="H297">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>24.29959007312765</v>
       </c>
     </row>
@@ -16032,19 +16033,19 @@
         <v>23.664949147726901</v>
       </c>
       <c r="E298">
-        <f>$J$3-$J$1*B298^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.341935887663059</v>
       </c>
       <c r="F298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0.10433756617707124</v>
       </c>
       <c r="G298">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.44898567768710862</v>
       </c>
       <c r="H298">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>24.11393482541401</v>
       </c>
     </row>
@@ -16062,19 +16063,19 @@
         <v>23.668013636363401</v>
       </c>
       <c r="E299">
-        <f>$J$3-$J$1*B299^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.357851843662601</v>
       </c>
       <c r="F299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>9.6200337651374049E-2</v>
       </c>
       <c r="G299">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.4330697216875663</v>
       </c>
       <c r="H299">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>24.101083358050968</v>
       </c>
     </row>
@@ -16092,19 +16093,19 @@
         <v>21.166304261363599</v>
       </c>
       <c r="E300">
-        <f>$J$3-$J$1*B300^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.358451348585341</v>
       </c>
       <c r="F300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>4.8055088520147642</v>
       </c>
       <c r="G300">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.43247021676482689</v>
       </c>
       <c r="H300">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>21.598774478128426</v>
       </c>
     </row>
@@ -16122,19 +16123,19 @@
         <v>22.1979818181815</v>
       </c>
       <c r="E301">
-        <f>$J$3-$J$1*B301^$J$2</f>
+        <f t="shared" si="18"/>
         <v>23.361243358192098</v>
       </c>
       <c r="F301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>1.3531774104678289</v>
       </c>
       <c r="G301">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0.42967820715806937</v>
       </c>
       <c r="H301">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>22.627660025339569</v>
       </c>
     </row>
